--- a/API設計_20201019.xlsx
+++ b/API設計_20201019.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kotori\Documents\GitHub\SerakuPJ_Bteam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{071EB0BF-F1FC-4226-833F-F323C5D69025}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DA73AB-E836-4AF2-883E-8C0591033781}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5970" yWindow="645" windowWidth="21075" windowHeight="14835" activeTab="2" xr2:uid="{6CD5D422-6C48-43B2-A20C-F480BDA33AB0}"/>
+    <workbookView xWindow="6900" yWindow="525" windowWidth="21075" windowHeight="14835" firstSheet="1" activeTab="3" xr2:uid="{6CD5D422-6C48-43B2-A20C-F480BDA33AB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Store（店舗情報）" sheetId="1" r:id="rId1"/>
     <sheet name="Menu（メニュー情報）" sheetId="2" r:id="rId2"/>
     <sheet name="Order（注文情報）_編集中" sheetId="3" r:id="rId3"/>
-    <sheet name="オーダー発生時のフローチャート" sheetId="4" r:id="rId4"/>
+    <sheet name="order,listテーブル利用イメージ" sheetId="5" r:id="rId4"/>
+    <sheet name="オーダー発生時のフローチャート" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="159">
   <si>
     <t>key</t>
     <phoneticPr fontId="1"/>
@@ -1072,6 +1073,173 @@
     <rPh sb="29" eb="31">
       <t>ヒョウジ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ユーザからのオーダー発生</t>
+    <rPh sb="11" eb="13">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブルNo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>000001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <rPh sb="0" eb="2">
+      <t>スウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1234</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・APIサーバ上の動作</t>
+    <rPh sb="7" eb="8">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>order</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ocode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>day</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tabnam</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>flg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>list</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lcode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>quantity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自動入力（入力なしでOK）</t>
+    <rPh sb="0" eb="2">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自動生成して代入</t>
+    <rPh sb="0" eb="2">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ダイニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XXXXXXXX</t>
+  </si>
+  <si>
+    <t>XXXXXXXX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>table</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>column</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UNIXタイムから自動生成して代入（※1）</t>
+    <rPh sb="9" eb="11">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ダイニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※1と同値</t>
+    <rPh sb="3" eb="5">
+      <t>ドウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル「order」に同じscode、同じtabnumのflgがTRUEしかない場合</t>
+    <rPh sb="12" eb="13">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル「order」に同じscode、同じtabnumのflgでFALSEがある場合</t>
+    <rPh sb="12" eb="13">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1114,7 +1282,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1133,8 +1301,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="47">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -1746,13 +1920,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1945,22 +2152,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1969,74 +2227,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2044,34 +2281,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2354,6 +2630,249 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>666751</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{092D3FD5-C75D-492F-A695-2B5A5F9515A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5286376" y="1876425"/>
+          <a:ext cx="3314700" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>新規の客が新規注文をする場合、と考える</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>666751</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B3A2582-7EA6-4B56-8743-64DE90D303FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5286376" y="4810125"/>
+          <a:ext cx="3314700" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>既存客が別注文をする場合、と考える</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D07C3D1-E4EA-43CC-91C1-77DD334C831F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3933825" y="5686425"/>
+          <a:ext cx="4038599" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>テーブル「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>order</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>」に存在するデータは変更しない</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3530,6 +4049,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -3844,81 +4367,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="78"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="94"/>
       <c r="G2" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="77" t="s">
+      <c r="H2" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="78"/>
+      <c r="I2" s="94"/>
     </row>
     <row r="3" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="80"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="96"/>
       <c r="G3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="79" t="s">
+      <c r="H3" s="95" t="s">
         <v>110</v>
       </c>
-      <c r="I3" s="80"/>
+      <c r="I3" s="96"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="82"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="70"/>
     </row>
     <row r="5" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="86"/>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="84"/>
+      <c r="A5" s="74"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="72"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
@@ -3936,31 +4459,31 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="C10" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="66"/>
-      <c r="E10" s="90"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="83"/>
       <c r="F10" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="64" t="s">
+      <c r="G10" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="65"/>
+      <c r="H10" s="85"/>
       <c r="I10" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="72"/>
-      <c r="B11" s="73"/>
+      <c r="A11" s="97"/>
+      <c r="B11" s="98"/>
       <c r="C11" s="40" t="s">
         <v>69</v>
       </c>
@@ -4012,31 +4535,31 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" s="68" t="s">
+      <c r="A17" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="74" t="s">
+      <c r="B17" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="74" t="s">
+      <c r="C17" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="66"/>
-      <c r="E17" s="90"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="83"/>
       <c r="F17" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="G17" s="64" t="s">
+      <c r="G17" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="H17" s="65"/>
+      <c r="H17" s="85"/>
       <c r="I17" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="72"/>
-      <c r="B18" s="75"/>
+      <c r="A18" s="97"/>
+      <c r="B18" s="99"/>
       <c r="C18" s="40" t="s">
         <v>69</v>
       </c>
@@ -4088,31 +4611,31 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A24" s="68" t="s">
+      <c r="A24" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="66" t="s">
+      <c r="B24" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="74" t="s">
+      <c r="C24" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="66"/>
-      <c r="E24" s="90"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="83"/>
       <c r="F24" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="G24" s="64" t="s">
+      <c r="G24" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="H24" s="65"/>
+      <c r="H24" s="85"/>
       <c r="I24" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="69"/>
-      <c r="B25" s="67"/>
+      <c r="A25" s="79"/>
+      <c r="B25" s="81"/>
       <c r="C25" s="40" t="s">
         <v>69</v>
       </c>
@@ -4136,13 +4659,13 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A26" s="91" t="s">
+      <c r="A26" s="86" t="s">
         <v>30</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="92" t="s">
+      <c r="C26" s="89" t="s">
         <v>81</v>
       </c>
       <c r="D26" s="44" t="s">
@@ -4165,11 +4688,11 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A27" s="70"/>
+      <c r="A27" s="87"/>
       <c r="B27" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="93"/>
+      <c r="C27" s="90"/>
       <c r="D27" s="2" t="s">
         <v>3</v>
       </c>
@@ -4188,11 +4711,11 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A28" s="70"/>
+      <c r="A28" s="87"/>
       <c r="B28" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="93"/>
+      <c r="C28" s="90"/>
       <c r="D28" s="2" t="s">
         <v>4</v>
       </c>
@@ -4211,11 +4734,11 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A29" s="70"/>
+      <c r="A29" s="87"/>
       <c r="B29" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="93"/>
+      <c r="C29" s="90"/>
       <c r="D29" s="2" t="s">
         <v>5</v>
       </c>
@@ -4234,11 +4757,11 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A30" s="70"/>
+      <c r="A30" s="87"/>
       <c r="B30" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="93"/>
+      <c r="C30" s="90"/>
       <c r="D30" s="2" t="s">
         <v>6</v>
       </c>
@@ -4257,11 +4780,11 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A31" s="70"/>
+      <c r="A31" s="87"/>
       <c r="B31" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="93"/>
+      <c r="C31" s="90"/>
       <c r="D31" s="2" t="s">
         <v>7</v>
       </c>
@@ -4280,11 +4803,11 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="71"/>
+      <c r="A32" s="88"/>
       <c r="B32" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="94"/>
+      <c r="C32" s="91"/>
       <c r="D32" s="46" t="s">
         <v>8</v>
       </c>
@@ -4325,31 +4848,31 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A38" s="68" t="s">
+      <c r="A38" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="66" t="s">
+      <c r="B38" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="74" t="s">
+      <c r="C38" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="66"/>
-      <c r="E38" s="90"/>
+      <c r="D38" s="80"/>
+      <c r="E38" s="83"/>
       <c r="F38" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="G38" s="64" t="s">
+      <c r="G38" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="H38" s="65"/>
+      <c r="H38" s="85"/>
       <c r="I38" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="69"/>
-      <c r="B39" s="67"/>
+      <c r="A39" s="79"/>
+      <c r="B39" s="81"/>
       <c r="C39" s="40" t="s">
         <v>69</v>
       </c>
@@ -4373,7 +4896,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A40" s="91" t="s">
+      <c r="A40" s="86" t="s">
         <v>67</v>
       </c>
       <c r="B40" s="16" t="s">
@@ -4402,11 +4925,11 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A41" s="70"/>
+      <c r="A41" s="87"/>
       <c r="B41" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="87" t="s">
+      <c r="C41" s="75" t="s">
         <v>81</v>
       </c>
       <c r="D41" s="2" t="s">
@@ -4427,11 +4950,11 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A42" s="70"/>
+      <c r="A42" s="87"/>
       <c r="B42" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="88"/>
+      <c r="C42" s="76"/>
       <c r="D42" s="2" t="s">
         <v>4</v>
       </c>
@@ -4450,11 +4973,11 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A43" s="70"/>
+      <c r="A43" s="87"/>
       <c r="B43" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="88"/>
+      <c r="C43" s="76"/>
       <c r="D43" s="2" t="s">
         <v>5</v>
       </c>
@@ -4473,11 +4996,11 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A44" s="70"/>
+      <c r="A44" s="87"/>
       <c r="B44" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C44" s="88"/>
+      <c r="C44" s="76"/>
       <c r="D44" s="2" t="s">
         <v>6</v>
       </c>
@@ -4496,11 +5019,11 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A45" s="70"/>
+      <c r="A45" s="87"/>
       <c r="B45" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C45" s="88"/>
+      <c r="C45" s="76"/>
       <c r="D45" s="2" t="s">
         <v>7</v>
       </c>
@@ -4519,11 +5042,11 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="71"/>
+      <c r="A46" s="88"/>
       <c r="B46" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C46" s="89"/>
+      <c r="C46" s="77"/>
       <c r="D46" s="46" t="s">
         <v>8</v>
       </c>
@@ -4571,31 +5094,31 @@
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A51" s="68" t="s">
+      <c r="A51" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="B51" s="66" t="s">
+      <c r="B51" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="C51" s="74" t="s">
+      <c r="C51" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="66"/>
-      <c r="E51" s="90"/>
+      <c r="D51" s="80"/>
+      <c r="E51" s="83"/>
       <c r="F51" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="G51" s="64" t="s">
+      <c r="G51" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="H51" s="65"/>
+      <c r="H51" s="85"/>
       <c r="I51" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="69"/>
-      <c r="B52" s="67"/>
+      <c r="A52" s="79"/>
+      <c r="B52" s="81"/>
       <c r="C52" s="40" t="s">
         <v>69</v>
       </c>
@@ -4649,6 +5172,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A32"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:I5"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="C41:C46"/>
@@ -4665,21 +5203,6 @@
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="C38:E38"/>
     <mergeCell ref="C26:C32"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A32"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="G17:H17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4703,81 +5226,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="78"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="94"/>
       <c r="G2" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="77" t="s">
+      <c r="H2" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="78"/>
+      <c r="I2" s="94"/>
     </row>
     <row r="3" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="95" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="80"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="96"/>
       <c r="G3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="79" t="s">
+      <c r="H3" s="95" t="s">
         <v>110</v>
       </c>
-      <c r="I3" s="80"/>
+      <c r="I3" s="96"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="82"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="70"/>
     </row>
     <row r="5" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="86"/>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="84"/>
+      <c r="A5" s="74"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="72"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
@@ -4795,31 +5318,31 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="C10" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="66"/>
-      <c r="E10" s="90"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="83"/>
       <c r="F10" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="64" t="s">
+      <c r="G10" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="65"/>
+      <c r="H10" s="85"/>
       <c r="I10" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="72"/>
-      <c r="B11" s="73"/>
+      <c r="A11" s="97"/>
+      <c r="B11" s="98"/>
       <c r="C11" s="40" t="s">
         <v>69</v>
       </c>
@@ -4871,31 +5394,31 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" s="68" t="s">
+      <c r="A17" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="74" t="s">
+      <c r="B17" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="74" t="s">
+      <c r="C17" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="66"/>
-      <c r="E17" s="90"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="83"/>
       <c r="F17" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="G17" s="64" t="s">
+      <c r="G17" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="H17" s="65"/>
+      <c r="H17" s="85"/>
       <c r="I17" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="72"/>
-      <c r="B18" s="75"/>
+      <c r="A18" s="97"/>
+      <c r="B18" s="99"/>
       <c r="C18" s="40" t="s">
         <v>69</v>
       </c>
@@ -4947,31 +5470,31 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A24" s="68" t="s">
+      <c r="A24" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="66" t="s">
+      <c r="B24" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="74" t="s">
+      <c r="C24" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="66"/>
-      <c r="E24" s="90"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="83"/>
       <c r="F24" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="G24" s="64" t="s">
+      <c r="G24" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="H24" s="65"/>
+      <c r="H24" s="85"/>
       <c r="I24" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="72"/>
-      <c r="B25" s="73"/>
+      <c r="A25" s="97"/>
+      <c r="B25" s="98"/>
       <c r="C25" s="52" t="s">
         <v>69</v>
       </c>
@@ -4995,13 +5518,13 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A26" s="97" t="s">
+      <c r="A26" s="100" t="s">
         <v>30</v>
       </c>
       <c r="B26" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="C26" s="95" t="s">
+      <c r="C26" s="105" t="s">
         <v>98</v>
       </c>
       <c r="D26" s="54" t="s">
@@ -5024,11 +5547,11 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A27" s="98"/>
+      <c r="A27" s="101"/>
       <c r="B27" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="96"/>
+      <c r="C27" s="106"/>
       <c r="D27" s="4" t="s">
         <v>20</v>
       </c>
@@ -5047,11 +5570,11 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A28" s="98"/>
+      <c r="A28" s="101"/>
       <c r="B28" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="96"/>
+      <c r="C28" s="106"/>
       <c r="D28" s="4" t="s">
         <v>21</v>
       </c>
@@ -5072,11 +5595,11 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="99"/>
+      <c r="A29" s="102"/>
       <c r="B29" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="C29" s="86"/>
+      <c r="C29" s="74"/>
       <c r="D29" s="55" t="s">
         <v>22</v>
       </c>
@@ -5118,31 +5641,31 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A35" s="68" t="s">
+      <c r="A35" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="66" t="s">
+      <c r="B35" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="74" t="s">
+      <c r="C35" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="66"/>
-      <c r="E35" s="90"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="83"/>
       <c r="F35" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="G35" s="64" t="s">
+      <c r="G35" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="H35" s="65"/>
+      <c r="H35" s="85"/>
       <c r="I35" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="72"/>
-      <c r="B36" s="73"/>
+      <c r="A36" s="97"/>
+      <c r="B36" s="98"/>
       <c r="C36" s="52" t="s">
         <v>69</v>
       </c>
@@ -5166,7 +5689,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="97" t="s">
+      <c r="A37" s="100" t="s">
         <v>67</v>
       </c>
       <c r="B37" s="61" t="s">
@@ -5195,11 +5718,11 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A38" s="98"/>
+      <c r="A38" s="101"/>
       <c r="B38" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="C38" s="100" t="s">
+      <c r="C38" s="103" t="s">
         <v>98</v>
       </c>
       <c r="D38" s="4" t="s">
@@ -5220,11 +5743,11 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A39" s="98"/>
+      <c r="A39" s="101"/>
       <c r="B39" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="C39" s="100"/>
+      <c r="C39" s="103"/>
       <c r="D39" s="4" t="s">
         <v>21</v>
       </c>
@@ -5245,11 +5768,11 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="99"/>
+      <c r="A40" s="102"/>
       <c r="B40" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="C40" s="101"/>
+      <c r="C40" s="104"/>
       <c r="D40" s="55" t="s">
         <v>22</v>
       </c>
@@ -5286,31 +5809,31 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A45" s="68" t="s">
+      <c r="A45" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="B45" s="66" t="s">
+      <c r="B45" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="C45" s="74" t="s">
+      <c r="C45" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="D45" s="66"/>
-      <c r="E45" s="90"/>
+      <c r="D45" s="80"/>
+      <c r="E45" s="83"/>
       <c r="F45" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="G45" s="64" t="s">
+      <c r="G45" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="H45" s="65"/>
+      <c r="H45" s="85"/>
       <c r="I45" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="69"/>
-      <c r="B46" s="67"/>
+      <c r="A46" s="79"/>
+      <c r="B46" s="81"/>
       <c r="C46" s="40" t="s">
         <v>69</v>
       </c>
@@ -5364,6 +5887,27 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I5"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="A26:A29"/>
     <mergeCell ref="A45:A46"/>
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="C45:E45"/>
@@ -5374,27 +5918,6 @@
     <mergeCell ref="G35:H35"/>
     <mergeCell ref="A37:A40"/>
     <mergeCell ref="C38:C40"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I5"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5406,7 +5929,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0664B7A0-99C2-4176-847A-EBEF7477ADCC}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
@@ -5418,81 +5941,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="78"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="94"/>
       <c r="G2" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="77" t="s">
+      <c r="H2" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="78"/>
+      <c r="I2" s="94"/>
     </row>
     <row r="3" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="95" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="80"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="96"/>
       <c r="G3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="79" t="s">
+      <c r="H3" s="95" t="s">
         <v>110</v>
       </c>
-      <c r="I3" s="80"/>
+      <c r="I3" s="96"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="82"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="70"/>
     </row>
     <row r="5" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="86"/>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="84"/>
+      <c r="A5" s="74"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="72"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
@@ -5510,31 +6033,31 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="C10" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="66"/>
-      <c r="E10" s="90"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="83"/>
       <c r="F10" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="64" t="s">
+      <c r="G10" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="65"/>
+      <c r="H10" s="85"/>
       <c r="I10" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="72"/>
-      <c r="B11" s="73"/>
+      <c r="A11" s="97"/>
+      <c r="B11" s="98"/>
       <c r="C11" s="40" t="s">
         <v>69</v>
       </c>
@@ -5586,31 +6109,31 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" s="68" t="s">
+      <c r="A17" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="74" t="s">
+      <c r="B17" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="74" t="s">
+      <c r="C17" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="66"/>
-      <c r="E17" s="90"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="83"/>
       <c r="F17" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="G17" s="64" t="s">
+      <c r="G17" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="H17" s="65"/>
+      <c r="H17" s="85"/>
       <c r="I17" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="72"/>
-      <c r="B18" s="75"/>
+      <c r="A18" s="97"/>
+      <c r="B18" s="99"/>
       <c r="C18" s="40" t="s">
         <v>69</v>
       </c>
@@ -5662,31 +6185,31 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A24" s="68" t="s">
+      <c r="A24" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="66" t="s">
+      <c r="B24" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="74" t="s">
+      <c r="C24" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="66"/>
-      <c r="E24" s="90"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="83"/>
       <c r="F24" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="G24" s="64" t="s">
+      <c r="G24" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="H24" s="65"/>
+      <c r="H24" s="85"/>
       <c r="I24" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="69"/>
-      <c r="B25" s="67"/>
+      <c r="A25" s="79"/>
+      <c r="B25" s="81"/>
       <c r="C25" s="40" t="s">
         <v>69</v>
       </c>
@@ -5710,13 +6233,13 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="102" t="s">
+      <c r="A26" s="64" t="s">
         <v>30</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="C26" s="104" t="s">
+      <c r="C26" s="66" t="s">
         <v>81</v>
       </c>
       <c r="D26" s="44" t="s">
@@ -5739,11 +6262,11 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A27" s="102"/>
+      <c r="A27" s="64"/>
       <c r="B27" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="C27" s="105"/>
+      <c r="C27" s="67"/>
       <c r="D27" s="2" t="s">
         <v>3</v>
       </c>
@@ -5762,11 +6285,11 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A28" s="102"/>
+      <c r="A28" s="64"/>
       <c r="B28" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="105"/>
+      <c r="C28" s="67"/>
       <c r="D28" s="2" t="s">
         <v>4</v>
       </c>
@@ -5785,11 +6308,11 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A29" s="102"/>
+      <c r="A29" s="64"/>
       <c r="B29" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="C29" s="105"/>
+      <c r="C29" s="67"/>
       <c r="D29" s="2" t="s">
         <v>5</v>
       </c>
@@ -5808,11 +6331,11 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="103"/>
+      <c r="A30" s="65"/>
       <c r="B30" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="C30" s="106"/>
+      <c r="C30" s="68"/>
       <c r="D30" s="46" t="s">
         <v>8</v>
       </c>
@@ -5853,31 +6376,31 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A36" s="68" t="s">
+      <c r="A36" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="66" t="s">
+      <c r="B36" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="74" t="s">
+      <c r="C36" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="66"/>
-      <c r="E36" s="90"/>
+      <c r="D36" s="80"/>
+      <c r="E36" s="83"/>
       <c r="F36" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="G36" s="64" t="s">
+      <c r="G36" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="H36" s="65"/>
+      <c r="H36" s="85"/>
       <c r="I36" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="69"/>
-      <c r="B37" s="67"/>
+      <c r="A37" s="79"/>
+      <c r="B37" s="81"/>
       <c r="C37" s="40" t="s">
         <v>69</v>
       </c>
@@ -5901,7 +6424,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A38" s="91" t="s">
+      <c r="A38" s="86" t="s">
         <v>67</v>
       </c>
       <c r="B38" s="16" t="s">
@@ -5930,11 +6453,11 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A39" s="70"/>
+      <c r="A39" s="87"/>
       <c r="B39" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="87" t="s">
+      <c r="C39" s="75" t="s">
         <v>81</v>
       </c>
       <c r="D39" s="2" t="s">
@@ -5955,11 +6478,11 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A40" s="70"/>
+      <c r="A40" s="87"/>
       <c r="B40" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="88"/>
+      <c r="C40" s="76"/>
       <c r="D40" s="2" t="s">
         <v>4</v>
       </c>
@@ -5978,11 +6501,11 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A41" s="70"/>
+      <c r="A41" s="87"/>
       <c r="B41" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="88"/>
+      <c r="C41" s="76"/>
       <c r="D41" s="2" t="s">
         <v>5</v>
       </c>
@@ -6001,11 +6524,11 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A42" s="70"/>
+      <c r="A42" s="87"/>
       <c r="B42" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C42" s="88"/>
+      <c r="C42" s="76"/>
       <c r="D42" s="2" t="s">
         <v>6</v>
       </c>
@@ -6024,11 +6547,11 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A43" s="70"/>
+      <c r="A43" s="87"/>
       <c r="B43" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="88"/>
+      <c r="C43" s="76"/>
       <c r="D43" s="2" t="s">
         <v>7</v>
       </c>
@@ -6047,11 +6570,11 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="71"/>
+      <c r="A44" s="88"/>
       <c r="B44" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C44" s="89"/>
+      <c r="C44" s="77"/>
       <c r="D44" s="46" t="s">
         <v>8</v>
       </c>
@@ -6099,31 +6622,31 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A49" s="68" t="s">
+      <c r="A49" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="66" t="s">
+      <c r="B49" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="C49" s="74" t="s">
+      <c r="C49" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="D49" s="66"/>
-      <c r="E49" s="90"/>
+      <c r="D49" s="80"/>
+      <c r="E49" s="83"/>
       <c r="F49" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="G49" s="64" t="s">
+      <c r="G49" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="H49" s="65"/>
+      <c r="H49" s="85"/>
       <c r="I49" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="69"/>
-      <c r="B50" s="67"/>
+      <c r="A50" s="79"/>
+      <c r="B50" s="81"/>
       <c r="C50" s="40" t="s">
         <v>69</v>
       </c>
@@ -6177,16 +6700,13 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="A38:A44"/>
-    <mergeCell ref="C39:C44"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I5"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="C24:E24"/>
@@ -6199,13 +6719,16 @@
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I5"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="A38:A44"/>
+    <mergeCell ref="C39:C44"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6215,6 +6738,302 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A6605C5-0CD3-4B27-9749-6398283CC69A}">
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.25" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B2" s="107" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="108" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="109" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B4" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="109" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B5" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="109" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="112" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" s="111" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" s="115" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B11" s="113" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" s="118" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="E11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B12" s="113"/>
+      <c r="C12" s="119" t="s">
+        <v>142</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B13" s="113"/>
+      <c r="C13" s="119" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="116" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B14" s="113"/>
+      <c r="C14" s="119" t="s">
+        <v>143</v>
+      </c>
+      <c r="D14" s="116" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="114"/>
+      <c r="C15" s="120" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B16" s="113" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" s="118" t="s">
+        <v>146</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B17" s="113"/>
+      <c r="C17" s="119" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="116" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B18" s="113"/>
+      <c r="C18" s="119" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18" s="117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="114"/>
+      <c r="C19" s="120" t="s">
+        <v>141</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="112" t="s">
+        <v>152</v>
+      </c>
+      <c r="C22" s="111" t="s">
+        <v>153</v>
+      </c>
+      <c r="D22" s="115" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B23" s="121" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" s="122" t="s">
+        <v>141</v>
+      </c>
+      <c r="D23" s="123" t="s">
+        <v>151</v>
+      </c>
+      <c r="E23" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B24" s="121"/>
+      <c r="C24" s="124" t="s">
+        <v>142</v>
+      </c>
+      <c r="D24" s="125"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B25" s="121"/>
+      <c r="C25" s="124" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="126" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B26" s="121"/>
+      <c r="C26" s="124" t="s">
+        <v>143</v>
+      </c>
+      <c r="D26" s="126" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="127"/>
+      <c r="C27" s="128" t="s">
+        <v>144</v>
+      </c>
+      <c r="D27" s="129" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B28" s="113" t="s">
+        <v>145</v>
+      </c>
+      <c r="C28" s="118" t="s">
+        <v>146</v>
+      </c>
+      <c r="D28" s="15"/>
+      <c r="E28" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B29" s="113"/>
+      <c r="C29" s="119" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="116" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B30" s="113"/>
+      <c r="C30" s="119" t="s">
+        <v>147</v>
+      </c>
+      <c r="D30" s="117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="114"/>
+      <c r="C31" s="120" t="s">
+        <v>141</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E31" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="B28:B31"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C755984C-36F2-44D7-9243-C2F17750188B}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/API設計_20201019.xlsx
+++ b/API設計_20201019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kotori\Documents\GitHub\SerakuPJ_Bteam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DA73AB-E836-4AF2-883E-8C0591033781}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB32CE8-C0E6-47A8-8FD3-3A34DFAAE92C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6900" yWindow="525" windowWidth="21075" windowHeight="14835" firstSheet="1" activeTab="3" xr2:uid="{6CD5D422-6C48-43B2-A20C-F480BDA33AB0}"/>
+    <workbookView xWindow="7320" yWindow="1680" windowWidth="20490" windowHeight="11295" activeTab="2" xr2:uid="{6CD5D422-6C48-43B2-A20C-F480BDA33AB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Store（店舗情報）" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="171">
   <si>
     <t>key</t>
     <phoneticPr fontId="1"/>
@@ -994,10 +994,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>order_code</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>(16進数8桁)</t>
     <rPh sb="3" eb="5">
       <t>シンスウ</t>
@@ -1240,6 +1236,68 @@
   </si>
   <si>
     <t>※1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・オーダー情報の登録</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OCode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Body
+(form-data)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニューコード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <rPh sb="0" eb="2">
+      <t>スウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>table_no</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>menu_code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>quantity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tabnum</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mcode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MCode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1959,7 +2017,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2158,13 +2216,100 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2281,23 +2426,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2305,50 +2438,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2371,16 +2465,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1076325</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2395,8 +2489,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1333500" y="1533524"/>
-          <a:ext cx="6819900" cy="5076825"/>
+          <a:off x="3476625" y="1381124"/>
+          <a:ext cx="6819900" cy="4248151"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4049,10 +4143,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -4367,81 +4457,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="121" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="122" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="94"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="123"/>
       <c r="G2" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="93" t="s">
+      <c r="H2" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="94"/>
+      <c r="I2" s="123"/>
     </row>
     <row r="3" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="124" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="96"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="125"/>
       <c r="G3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="95" t="s">
+      <c r="H3" s="124" t="s">
         <v>110</v>
       </c>
-      <c r="I3" s="96"/>
+      <c r="I3" s="125"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="98" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="70"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="99"/>
     </row>
     <row r="5" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="74"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="72"/>
+      <c r="A5" s="103"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="101"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
@@ -4459,31 +4549,31 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="107" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="80" t="s">
+      <c r="B10" s="109" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="82" t="s">
+      <c r="C10" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="80"/>
-      <c r="E10" s="83"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="112"/>
       <c r="F10" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="84" t="s">
+      <c r="G10" s="113" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="85"/>
+      <c r="H10" s="114"/>
       <c r="I10" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="97"/>
-      <c r="B11" s="98"/>
+      <c r="A11" s="126"/>
+      <c r="B11" s="127"/>
       <c r="C11" s="40" t="s">
         <v>69</v>
       </c>
@@ -4535,31 +4625,31 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" s="78" t="s">
+      <c r="A17" s="107" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="82" t="s">
+      <c r="B17" s="111" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="82" t="s">
+      <c r="C17" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="80"/>
-      <c r="E17" s="83"/>
+      <c r="D17" s="109"/>
+      <c r="E17" s="112"/>
       <c r="F17" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="G17" s="84" t="s">
+      <c r="G17" s="113" t="s">
         <v>43</v>
       </c>
-      <c r="H17" s="85"/>
+      <c r="H17" s="114"/>
       <c r="I17" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="97"/>
-      <c r="B18" s="99"/>
+      <c r="A18" s="126"/>
+      <c r="B18" s="128"/>
       <c r="C18" s="40" t="s">
         <v>69</v>
       </c>
@@ -4611,31 +4701,31 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A24" s="78" t="s">
+      <c r="A24" s="107" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="80" t="s">
+      <c r="B24" s="109" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="82" t="s">
+      <c r="C24" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="80"/>
-      <c r="E24" s="83"/>
+      <c r="D24" s="109"/>
+      <c r="E24" s="112"/>
       <c r="F24" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="G24" s="84" t="s">
+      <c r="G24" s="113" t="s">
         <v>43</v>
       </c>
-      <c r="H24" s="85"/>
+      <c r="H24" s="114"/>
       <c r="I24" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="79"/>
-      <c r="B25" s="81"/>
+      <c r="A25" s="108"/>
+      <c r="B25" s="110"/>
       <c r="C25" s="40" t="s">
         <v>69</v>
       </c>
@@ -4659,13 +4749,13 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A26" s="86" t="s">
+      <c r="A26" s="115" t="s">
         <v>30</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="89" t="s">
+      <c r="C26" s="118" t="s">
         <v>81</v>
       </c>
       <c r="D26" s="44" t="s">
@@ -4688,11 +4778,11 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A27" s="87"/>
+      <c r="A27" s="116"/>
       <c r="B27" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="90"/>
+      <c r="C27" s="119"/>
       <c r="D27" s="2" t="s">
         <v>3</v>
       </c>
@@ -4711,11 +4801,11 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A28" s="87"/>
+      <c r="A28" s="116"/>
       <c r="B28" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="90"/>
+      <c r="C28" s="119"/>
       <c r="D28" s="2" t="s">
         <v>4</v>
       </c>
@@ -4734,11 +4824,11 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A29" s="87"/>
+      <c r="A29" s="116"/>
       <c r="B29" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="90"/>
+      <c r="C29" s="119"/>
       <c r="D29" s="2" t="s">
         <v>5</v>
       </c>
@@ -4757,11 +4847,11 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A30" s="87"/>
+      <c r="A30" s="116"/>
       <c r="B30" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="90"/>
+      <c r="C30" s="119"/>
       <c r="D30" s="2" t="s">
         <v>6</v>
       </c>
@@ -4780,11 +4870,11 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A31" s="87"/>
+      <c r="A31" s="116"/>
       <c r="B31" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="90"/>
+      <c r="C31" s="119"/>
       <c r="D31" s="2" t="s">
         <v>7</v>
       </c>
@@ -4803,11 +4893,11 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="88"/>
+      <c r="A32" s="117"/>
       <c r="B32" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="91"/>
+      <c r="C32" s="120"/>
       <c r="D32" s="46" t="s">
         <v>8</v>
       </c>
@@ -4848,31 +4938,31 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A38" s="78" t="s">
+      <c r="A38" s="107" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="80" t="s">
+      <c r="B38" s="109" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="82" t="s">
+      <c r="C38" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="80"/>
-      <c r="E38" s="83"/>
+      <c r="D38" s="109"/>
+      <c r="E38" s="112"/>
       <c r="F38" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="G38" s="84" t="s">
+      <c r="G38" s="113" t="s">
         <v>43</v>
       </c>
-      <c r="H38" s="85"/>
+      <c r="H38" s="114"/>
       <c r="I38" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="79"/>
-      <c r="B39" s="81"/>
+      <c r="A39" s="108"/>
+      <c r="B39" s="110"/>
       <c r="C39" s="40" t="s">
         <v>69</v>
       </c>
@@ -4896,7 +4986,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A40" s="86" t="s">
+      <c r="A40" s="115" t="s">
         <v>67</v>
       </c>
       <c r="B40" s="16" t="s">
@@ -4925,11 +5015,11 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A41" s="87"/>
+      <c r="A41" s="116"/>
       <c r="B41" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="75" t="s">
+      <c r="C41" s="104" t="s">
         <v>81</v>
       </c>
       <c r="D41" s="2" t="s">
@@ -4950,11 +5040,11 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A42" s="87"/>
+      <c r="A42" s="116"/>
       <c r="B42" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="76"/>
+      <c r="C42" s="105"/>
       <c r="D42" s="2" t="s">
         <v>4</v>
       </c>
@@ -4973,11 +5063,11 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A43" s="87"/>
+      <c r="A43" s="116"/>
       <c r="B43" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="76"/>
+      <c r="C43" s="105"/>
       <c r="D43" s="2" t="s">
         <v>5</v>
       </c>
@@ -4996,11 +5086,11 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A44" s="87"/>
+      <c r="A44" s="116"/>
       <c r="B44" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C44" s="76"/>
+      <c r="C44" s="105"/>
       <c r="D44" s="2" t="s">
         <v>6</v>
       </c>
@@ -5019,11 +5109,11 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A45" s="87"/>
+      <c r="A45" s="116"/>
       <c r="B45" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C45" s="76"/>
+      <c r="C45" s="105"/>
       <c r="D45" s="2" t="s">
         <v>7</v>
       </c>
@@ -5042,11 +5132,11 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="88"/>
+      <c r="A46" s="117"/>
       <c r="B46" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C46" s="77"/>
+      <c r="C46" s="106"/>
       <c r="D46" s="46" t="s">
         <v>8</v>
       </c>
@@ -5094,31 +5184,31 @@
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A51" s="78" t="s">
+      <c r="A51" s="107" t="s">
         <v>53</v>
       </c>
-      <c r="B51" s="80" t="s">
+      <c r="B51" s="109" t="s">
         <v>54</v>
       </c>
-      <c r="C51" s="82" t="s">
+      <c r="C51" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="80"/>
-      <c r="E51" s="83"/>
+      <c r="D51" s="109"/>
+      <c r="E51" s="112"/>
       <c r="F51" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="G51" s="84" t="s">
+      <c r="G51" s="113" t="s">
         <v>43</v>
       </c>
-      <c r="H51" s="85"/>
+      <c r="H51" s="114"/>
       <c r="I51" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="79"/>
-      <c r="B52" s="81"/>
+      <c r="A52" s="108"/>
+      <c r="B52" s="110"/>
       <c r="C52" s="40" t="s">
         <v>69</v>
       </c>
@@ -5226,81 +5316,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="121" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="122" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="94"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="123"/>
       <c r="G2" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="93" t="s">
+      <c r="H2" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="94"/>
+      <c r="I2" s="123"/>
     </row>
     <row r="3" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="124" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="96"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="125"/>
       <c r="G3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="95" t="s">
+      <c r="H3" s="124" t="s">
         <v>110</v>
       </c>
-      <c r="I3" s="96"/>
+      <c r="I3" s="125"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="98" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="70"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="99"/>
     </row>
     <row r="5" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="74"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="72"/>
+      <c r="A5" s="103"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="101"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
@@ -5318,31 +5408,31 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="107" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="80" t="s">
+      <c r="B10" s="109" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="82" t="s">
+      <c r="C10" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="80"/>
-      <c r="E10" s="83"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="112"/>
       <c r="F10" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="84" t="s">
+      <c r="G10" s="113" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="85"/>
+      <c r="H10" s="114"/>
       <c r="I10" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="97"/>
-      <c r="B11" s="98"/>
+      <c r="A11" s="126"/>
+      <c r="B11" s="127"/>
       <c r="C11" s="40" t="s">
         <v>69</v>
       </c>
@@ -5394,31 +5484,31 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" s="78" t="s">
+      <c r="A17" s="107" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="82" t="s">
+      <c r="B17" s="111" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="82" t="s">
+      <c r="C17" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="80"/>
-      <c r="E17" s="83"/>
+      <c r="D17" s="109"/>
+      <c r="E17" s="112"/>
       <c r="F17" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="G17" s="84" t="s">
+      <c r="G17" s="113" t="s">
         <v>43</v>
       </c>
-      <c r="H17" s="85"/>
+      <c r="H17" s="114"/>
       <c r="I17" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="97"/>
-      <c r="B18" s="99"/>
+      <c r="A18" s="126"/>
+      <c r="B18" s="128"/>
       <c r="C18" s="40" t="s">
         <v>69</v>
       </c>
@@ -5470,31 +5560,31 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A24" s="78" t="s">
+      <c r="A24" s="107" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="80" t="s">
+      <c r="B24" s="109" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="82" t="s">
+      <c r="C24" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="80"/>
-      <c r="E24" s="83"/>
+      <c r="D24" s="109"/>
+      <c r="E24" s="112"/>
       <c r="F24" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="G24" s="84" t="s">
+      <c r="G24" s="113" t="s">
         <v>43</v>
       </c>
-      <c r="H24" s="85"/>
+      <c r="H24" s="114"/>
       <c r="I24" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="97"/>
-      <c r="B25" s="98"/>
+      <c r="A25" s="126"/>
+      <c r="B25" s="127"/>
       <c r="C25" s="52" t="s">
         <v>69</v>
       </c>
@@ -5518,13 +5608,13 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A26" s="100" t="s">
+      <c r="A26" s="129" t="s">
         <v>30</v>
       </c>
       <c r="B26" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="C26" s="105" t="s">
+      <c r="C26" s="134" t="s">
         <v>98</v>
       </c>
       <c r="D26" s="54" t="s">
@@ -5547,11 +5637,11 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A27" s="101"/>
+      <c r="A27" s="130"/>
       <c r="B27" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="106"/>
+      <c r="C27" s="135"/>
       <c r="D27" s="4" t="s">
         <v>20</v>
       </c>
@@ -5570,11 +5660,11 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A28" s="101"/>
+      <c r="A28" s="130"/>
       <c r="B28" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="106"/>
+      <c r="C28" s="135"/>
       <c r="D28" s="4" t="s">
         <v>21</v>
       </c>
@@ -5595,11 +5685,11 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="102"/>
+      <c r="A29" s="131"/>
       <c r="B29" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="C29" s="74"/>
+      <c r="C29" s="103"/>
       <c r="D29" s="55" t="s">
         <v>22</v>
       </c>
@@ -5641,31 +5731,31 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A35" s="78" t="s">
+      <c r="A35" s="107" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="80" t="s">
+      <c r="B35" s="109" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="82" t="s">
+      <c r="C35" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="80"/>
-      <c r="E35" s="83"/>
+      <c r="D35" s="109"/>
+      <c r="E35" s="112"/>
       <c r="F35" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="G35" s="84" t="s">
+      <c r="G35" s="113" t="s">
         <v>43</v>
       </c>
-      <c r="H35" s="85"/>
+      <c r="H35" s="114"/>
       <c r="I35" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="97"/>
-      <c r="B36" s="98"/>
+      <c r="A36" s="126"/>
+      <c r="B36" s="127"/>
       <c r="C36" s="52" t="s">
         <v>69</v>
       </c>
@@ -5689,7 +5779,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="100" t="s">
+      <c r="A37" s="129" t="s">
         <v>67</v>
       </c>
       <c r="B37" s="61" t="s">
@@ -5718,11 +5808,11 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A38" s="101"/>
+      <c r="A38" s="130"/>
       <c r="B38" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="C38" s="103" t="s">
+      <c r="C38" s="132" t="s">
         <v>98</v>
       </c>
       <c r="D38" s="4" t="s">
@@ -5743,11 +5833,11 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A39" s="101"/>
+      <c r="A39" s="130"/>
       <c r="B39" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="C39" s="103"/>
+      <c r="C39" s="132"/>
       <c r="D39" s="4" t="s">
         <v>21</v>
       </c>
@@ -5768,11 +5858,11 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="102"/>
+      <c r="A40" s="131"/>
       <c r="B40" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="C40" s="104"/>
+      <c r="C40" s="133"/>
       <c r="D40" s="55" t="s">
         <v>22</v>
       </c>
@@ -5809,31 +5899,31 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A45" s="78" t="s">
+      <c r="A45" s="107" t="s">
         <v>53</v>
       </c>
-      <c r="B45" s="80" t="s">
+      <c r="B45" s="109" t="s">
         <v>54</v>
       </c>
-      <c r="C45" s="82" t="s">
+      <c r="C45" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="D45" s="80"/>
-      <c r="E45" s="83"/>
+      <c r="D45" s="109"/>
+      <c r="E45" s="112"/>
       <c r="F45" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="G45" s="84" t="s">
+      <c r="G45" s="113" t="s">
         <v>43</v>
       </c>
-      <c r="H45" s="85"/>
+      <c r="H45" s="114"/>
       <c r="I45" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="79"/>
-      <c r="B46" s="81"/>
+      <c r="A46" s="108"/>
+      <c r="B46" s="110"/>
       <c r="C46" s="40" t="s">
         <v>69</v>
       </c>
@@ -5927,9 +6017,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0664B7A0-99C2-4176-847A-EBEF7477ADCC}">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
@@ -5941,85 +6031,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="121" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="122" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="94"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="123"/>
       <c r="G2" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="93" t="s">
+      <c r="H2" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="94"/>
+      <c r="I2" s="123"/>
     </row>
     <row r="3" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="124" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="96"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="125"/>
       <c r="G3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="95" t="s">
+      <c r="H3" s="124" t="s">
         <v>110</v>
       </c>
-      <c r="I3" s="96"/>
+      <c r="I3" s="125"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="98" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="70"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="99"/>
     </row>
     <row r="5" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="74"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="72"/>
+      <c r="A5" s="103"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="101"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
@@ -6033,31 +6123,31 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="107" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="80" t="s">
+      <c r="B10" s="109" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="82" t="s">
+      <c r="C10" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="80"/>
-      <c r="E10" s="83"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="112"/>
       <c r="F10" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="84" t="s">
+      <c r="G10" s="113" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="85"/>
+      <c r="H10" s="114"/>
       <c r="I10" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="97"/>
-      <c r="B11" s="98"/>
+      <c r="A11" s="126"/>
+      <c r="B11" s="127"/>
       <c r="C11" s="40" t="s">
         <v>69</v>
       </c>
@@ -6095,7 +6185,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
@@ -6105,35 +6195,35 @@
     </row>
     <row r="16" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" s="78" t="s">
+      <c r="A17" s="107" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="82" t="s">
+      <c r="B17" s="111" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="82" t="s">
+      <c r="C17" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="80"/>
-      <c r="E17" s="83"/>
+      <c r="D17" s="109"/>
+      <c r="E17" s="112"/>
       <c r="F17" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="G17" s="84" t="s">
+      <c r="G17" s="113" t="s">
         <v>43</v>
       </c>
-      <c r="H17" s="85"/>
+      <c r="H17" s="114"/>
       <c r="I17" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="97"/>
-      <c r="B18" s="99"/>
+      <c r="A18" s="126"/>
+      <c r="B18" s="128"/>
       <c r="C18" s="40" t="s">
         <v>69</v>
       </c>
@@ -6171,12 +6261,12 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>56</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -6185,31 +6275,31 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A24" s="78" t="s">
+      <c r="A24" s="107" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="80" t="s">
+      <c r="B24" s="109" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="82" t="s">
+      <c r="C24" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="80"/>
-      <c r="E24" s="83"/>
+      <c r="D24" s="109"/>
+      <c r="E24" s="112"/>
       <c r="F24" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="G24" s="84" t="s">
+      <c r="G24" s="113" t="s">
         <v>43</v>
       </c>
-      <c r="H24" s="85"/>
+      <c r="H24" s="114"/>
       <c r="I24" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="79"/>
-      <c r="B25" s="81"/>
+      <c r="A25" s="108"/>
+      <c r="B25" s="110"/>
       <c r="C25" s="40" t="s">
         <v>69</v>
       </c>
@@ -6236,66 +6326,62 @@
       <c r="A26" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="90" t="s">
         <v>121</v>
       </c>
-      <c r="C26" s="66" t="s">
-        <v>81</v>
-      </c>
-      <c r="D26" s="44" t="s">
+      <c r="C26" s="91"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="93" t="s">
         <v>125</v>
       </c>
-      <c r="E26" s="45" t="s">
-        <v>126</v>
-      </c>
       <c r="F26" s="16" t="s">
-        <v>70</v>
+        <v>159</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>46</v>
+        <v>140</v>
       </c>
       <c r="H26" s="13" t="s">
         <v>9</v>
       </c>
       <c r="I26" s="15" t="s">
-        <v>12</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="64"/>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="94" t="s">
         <v>122</v>
       </c>
-      <c r="C27" s="67"/>
-      <c r="D27" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="6"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="96"/>
+      <c r="E27" s="97"/>
       <c r="F27" s="17" t="s">
         <v>71</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>9</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="64"/>
       <c r="B28" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="67"/>
+      <c r="C28" s="136" t="s">
+        <v>160</v>
+      </c>
       <c r="D28" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G28" s="9" t="s">
         <v>48</v>
@@ -6312,13 +6398,13 @@
       <c r="B29" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="C29" s="67"/>
+      <c r="C29" s="136"/>
       <c r="D29" s="2" t="s">
-        <v>5</v>
+        <v>163</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="17" t="s">
-        <v>73</v>
+        <v>166</v>
       </c>
       <c r="G29" s="9" t="s">
         <v>49</v>
@@ -6327,379 +6413,423 @@
         <v>9</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="65"/>
-      <c r="B30" s="18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A30" s="64"/>
+      <c r="B30" s="85" t="s">
+        <v>161</v>
+      </c>
+      <c r="C30" s="136"/>
+      <c r="D30" s="86" t="s">
+        <v>164</v>
+      </c>
+      <c r="E30" s="87"/>
+      <c r="F30" s="85" t="s">
+        <v>168</v>
+      </c>
+      <c r="G30" s="88" t="s">
+        <v>167</v>
+      </c>
+      <c r="H30" s="87" t="s">
+        <v>169</v>
+      </c>
+      <c r="I30" s="89" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A31" s="64"/>
+      <c r="B31" s="85" t="s">
+        <v>162</v>
+      </c>
+      <c r="C31" s="136"/>
+      <c r="D31" s="86" t="s">
+        <v>165</v>
+      </c>
+      <c r="E31" s="87"/>
+      <c r="F31" s="85" t="s">
+        <v>165</v>
+      </c>
+      <c r="G31" s="88" t="s">
+        <v>165</v>
+      </c>
+      <c r="H31" s="87" t="s">
+        <v>170</v>
+      </c>
+      <c r="I31" s="89" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="65"/>
+      <c r="B32" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="C30" s="68"/>
-      <c r="D30" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="8" t="s">
+      <c r="C32" s="137"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F30" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="H30" s="8" t="s">
+      <c r="F32" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="H32" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I30" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A32" s="1" t="s">
+      <c r="I32" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
+    <row r="37" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A36" s="78" t="s">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A38" s="107" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="80" t="s">
+      <c r="B38" s="109" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="82" t="s">
+      <c r="C38" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="80"/>
-      <c r="E36" s="83"/>
-      <c r="F36" s="42" t="s">
+      <c r="D38" s="109"/>
+      <c r="E38" s="112"/>
+      <c r="F38" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="G36" s="84" t="s">
+      <c r="G38" s="113" t="s">
         <v>43</v>
       </c>
-      <c r="H36" s="85"/>
-      <c r="I36" s="21" t="s">
+      <c r="H38" s="114"/>
+      <c r="I38" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="79"/>
-      <c r="B37" s="81"/>
-      <c r="C37" s="40" t="s">
+    <row r="39" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="108"/>
+      <c r="B39" s="110"/>
+      <c r="C39" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="D37" s="41" t="s">
+      <c r="D39" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="E37" s="26" t="s">
+      <c r="E39" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="F37" s="27" t="s">
+      <c r="F39" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="G37" s="25" t="s">
+      <c r="G39" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="H37" s="26" t="s">
+      <c r="H39" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="I37" s="27" t="s">
+      <c r="I39" s="27" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A38" s="86" t="s">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A40" s="115" t="s">
         <v>67</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B40" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="47" t="s">
+      <c r="C40" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="D38" s="44" t="s">
+      <c r="D40" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="E38" s="45" t="s">
+      <c r="E40" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="F38" s="16" t="s">
+      <c r="F40" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="G38" s="14" t="s">
+      <c r="G40" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H38" s="13" t="s">
+      <c r="H40" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I38" s="15" t="s">
+      <c r="I40" s="15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A39" s="87"/>
-      <c r="B39" s="17" t="s">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A41" s="116"/>
+      <c r="B41" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="75" t="s">
+      <c r="C41" s="104" t="s">
         <v>81</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="E39" s="6"/>
-      <c r="F39" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I39" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A40" s="87"/>
-      <c r="B40" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C40" s="76"/>
-      <c r="D40" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E40" s="6"/>
-      <c r="F40" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I40" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A41" s="87"/>
-      <c r="B41" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C41" s="76"/>
-      <c r="D41" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>9</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A42" s="87"/>
+      <c r="A42" s="116"/>
       <c r="B42" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C42" s="76"/>
+        <v>35</v>
+      </c>
+      <c r="C42" s="105"/>
       <c r="D42" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>9</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A43" s="87"/>
+      <c r="A43" s="116"/>
       <c r="B43" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C43" s="76"/>
+        <v>36</v>
+      </c>
+      <c r="C43" s="105"/>
       <c r="D43" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>9</v>
       </c>
       <c r="I43" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A44" s="116"/>
+      <c r="B44" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" s="105"/>
+      <c r="D44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="6"/>
+      <c r="F44" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I44" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A45" s="116"/>
+      <c r="B45" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="105"/>
+      <c r="D45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="6"/>
+      <c r="F45" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I45" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="88"/>
-      <c r="B44" s="18" t="s">
+    <row r="46" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="117"/>
+      <c r="B46" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C44" s="77"/>
-      <c r="D44" s="46" t="s">
+      <c r="C46" s="106"/>
+      <c r="D46" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E46" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F44" s="18" t="s">
+      <c r="F46" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="G44" s="10" t="s">
+      <c r="G46" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H44" s="8" t="s">
+      <c r="H46" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I44" s="12" t="s">
+      <c r="I46" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A45" s="28"/>
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A46" s="1" t="s">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A47" s="28"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A48" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A47" t="s">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A48" t="s">
+    <row r="50" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A49" s="78" t="s">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A51" s="107" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="80" t="s">
+      <c r="B51" s="109" t="s">
         <v>54</v>
       </c>
-      <c r="C49" s="82" t="s">
+      <c r="C51" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="D49" s="80"/>
-      <c r="E49" s="83"/>
-      <c r="F49" s="42" t="s">
+      <c r="D51" s="109"/>
+      <c r="E51" s="112"/>
+      <c r="F51" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="G49" s="84" t="s">
+      <c r="G51" s="113" t="s">
         <v>43</v>
       </c>
-      <c r="H49" s="85"/>
-      <c r="I49" s="21" t="s">
+      <c r="H51" s="114"/>
+      <c r="I51" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="79"/>
-      <c r="B50" s="81"/>
-      <c r="C50" s="40" t="s">
+    <row r="52" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="108"/>
+      <c r="B52" s="110"/>
+      <c r="C52" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="D50" s="41" t="s">
+      <c r="D52" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="E50" s="26" t="s">
+      <c r="E52" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="F50" s="27" t="s">
+      <c r="F52" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="G50" s="25" t="s">
+      <c r="G52" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="H50" s="26" t="s">
+      <c r="H52" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="I50" s="27" t="s">
+      <c r="I52" s="27" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="19" t="s">
+    <row r="53" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="B51" s="31" t="s">
+      <c r="B53" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C51" s="48" t="s">
+      <c r="C53" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="D51" s="49" t="s">
+      <c r="D53" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="E51" s="20" t="s">
+      <c r="E53" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F51" s="31" t="s">
+      <c r="F53" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="G51" s="50" t="s">
+      <c r="G53" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="H51" s="20" t="s">
+      <c r="H53" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="I51" s="51" t="s">
+      <c r="I53" s="51" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="30">
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:I5"/>
     <mergeCell ref="A1:I1"/>
@@ -6719,16 +6849,17 @@
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="A38:A44"/>
-    <mergeCell ref="C39:C44"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="A40:A46"/>
+    <mergeCell ref="C41:C46"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6741,8 +6872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A6605C5-0CD3-4B27-9749-6398283CC69A}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6756,267 +6887,267 @@
   <sheetData>
     <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B2" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="67" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B2" s="107" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="108" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="109" t="s">
-        <v>135</v>
+      <c r="C3" s="68" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B4" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" s="109" t="s">
-        <v>136</v>
+        <v>133</v>
+      </c>
+      <c r="C4" s="68" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B5" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="109" t="s">
-        <v>138</v>
+      <c r="C5" s="68" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="C6" s="110">
+        <v>136</v>
+      </c>
+      <c r="C6" s="69">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="112" t="s">
+      <c r="B10" s="71" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="70" t="s">
         <v>152</v>
       </c>
-      <c r="C10" s="111" t="s">
+      <c r="D10" s="72" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B11" s="138" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" s="75" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="E11" t="s">
         <v>153</v>
       </c>
-      <c r="D10" s="115" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B11" s="113" t="s">
-        <v>140</v>
-      </c>
-      <c r="C11" s="118" t="s">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B12" s="138"/>
+      <c r="C12" s="76" t="s">
         <v>141</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="E11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B12" s="113"/>
-      <c r="C12" s="119" t="s">
-        <v>142</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B13" s="113"/>
-      <c r="C13" s="119" t="s">
+      <c r="B13" s="138"/>
+      <c r="C13" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="116" t="s">
+      <c r="D13" s="73" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B14" s="138"/>
+      <c r="C14" s="76" t="s">
+        <v>142</v>
+      </c>
+      <c r="D14" s="73" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B14" s="113"/>
-      <c r="C14" s="119" t="s">
+    <row r="15" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="139"/>
+      <c r="C15" s="77" t="s">
         <v>143</v>
-      </c>
-      <c r="D14" s="116" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="114"/>
-      <c r="C15" s="120" t="s">
-        <v>144</v>
       </c>
       <c r="D15" s="12" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B16" s="113" t="s">
+      <c r="B16" s="138" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" s="75" t="s">
         <v>145</v>
-      </c>
-      <c r="C16" s="118" t="s">
-        <v>146</v>
       </c>
       <c r="D16" s="15"/>
       <c r="E16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B17" s="113"/>
-      <c r="C17" s="119" t="s">
+      <c r="B17" s="138"/>
+      <c r="C17" s="76" t="s">
         <v>107</v>
       </c>
-      <c r="D17" s="116" t="s">
-        <v>138</v>
+      <c r="D17" s="73" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B18" s="113"/>
-      <c r="C18" s="119" t="s">
-        <v>147</v>
-      </c>
-      <c r="D18" s="117">
+      <c r="B18" s="138"/>
+      <c r="C18" s="76" t="s">
+        <v>146</v>
+      </c>
+      <c r="D18" s="74">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="114"/>
-      <c r="C19" s="120" t="s">
-        <v>141</v>
+      <c r="B19" s="139"/>
+      <c r="C19" s="77" t="s">
+        <v>140</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="71" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" s="70" t="s">
+        <v>152</v>
+      </c>
+      <c r="D22" s="72" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B23" s="140" t="s">
+        <v>139</v>
+      </c>
+      <c r="C23" s="78" t="s">
+        <v>140</v>
+      </c>
+      <c r="D23" s="79" t="s">
+        <v>150</v>
+      </c>
+      <c r="E23" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="112" t="s">
-        <v>152</v>
-      </c>
-      <c r="C22" s="111" t="s">
-        <v>153</v>
-      </c>
-      <c r="D22" s="115" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B23" s="121" t="s">
-        <v>140</v>
-      </c>
-      <c r="C23" s="122" t="s">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B24" s="140"/>
+      <c r="C24" s="80" t="s">
         <v>141</v>
       </c>
-      <c r="D23" s="123" t="s">
-        <v>151</v>
-      </c>
-      <c r="E23" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B24" s="121"/>
-      <c r="C24" s="124" t="s">
+      <c r="D24" s="81"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B25" s="140"/>
+      <c r="C25" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="82" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B26" s="140"/>
+      <c r="C26" s="80" t="s">
         <v>142</v>
       </c>
-      <c r="D24" s="125"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B25" s="121"/>
-      <c r="C25" s="124" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="126" t="s">
+      <c r="D26" s="82" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B26" s="121"/>
-      <c r="C26" s="124" t="s">
+    <row r="27" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="141"/>
+      <c r="C27" s="83" t="s">
         <v>143</v>
       </c>
-      <c r="D26" s="126" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="127"/>
-      <c r="C27" s="128" t="s">
+      <c r="D27" s="84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B28" s="138" t="s">
         <v>144</v>
       </c>
-      <c r="D27" s="129" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B28" s="113" t="s">
+      <c r="C28" s="75" t="s">
         <v>145</v>
-      </c>
-      <c r="C28" s="118" t="s">
-        <v>146</v>
       </c>
       <c r="D28" s="15"/>
       <c r="E28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B29" s="113"/>
-      <c r="C29" s="119" t="s">
+      <c r="B29" s="138"/>
+      <c r="C29" s="76" t="s">
         <v>107</v>
       </c>
-      <c r="D29" s="116" t="s">
-        <v>138</v>
+      <c r="D29" s="73" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B30" s="113"/>
-      <c r="C30" s="119" t="s">
-        <v>147</v>
-      </c>
-      <c r="D30" s="117">
+      <c r="B30" s="138"/>
+      <c r="C30" s="76" t="s">
+        <v>146</v>
+      </c>
+      <c r="D30" s="74">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="114"/>
-      <c r="C31" s="120" t="s">
-        <v>141</v>
+      <c r="B31" s="139"/>
+      <c r="C31" s="77" t="s">
+        <v>140</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E31" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -7045,7 +7176,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/API設計_20201019.xlsx
+++ b/API設計_20201019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kotori\Documents\GitHub\SerakuPJ_Bteam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB32CE8-C0E6-47A8-8FD3-3A34DFAAE92C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB509E3-387E-4C08-B26F-627FF7A5080E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="1680" windowWidth="20490" windowHeight="11295" activeTab="2" xr2:uid="{6CD5D422-6C48-43B2-A20C-F480BDA33AB0}"/>
+    <workbookView xWindow="7665" yWindow="2025" windowWidth="20490" windowHeight="11295" activeTab="2" xr2:uid="{6CD5D422-6C48-43B2-A20C-F480BDA33AB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Store（店舗情報）" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="175">
   <si>
     <t>key</t>
     <phoneticPr fontId="1"/>
@@ -1281,10 +1281,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>tabnum</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>mcode</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1298,6 +1294,29 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>`order`、list</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>`order`</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>list</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(整数値)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2017,7 +2036,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2288,9 +2307,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2300,9 +2316,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2312,6 +2325,60 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2339,39 +2406,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2381,28 +2418,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2420,18 +2439,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2443,6 +2453,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2466,15 +2497,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1076325</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:colOff>1019175</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2489,7 +2520,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3476625" y="1381124"/>
+          <a:off x="3419475" y="876299"/>
           <a:ext cx="6819900" cy="4248151"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4457,81 +4488,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="123"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="111"/>
       <c r="G2" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="122" t="s">
+      <c r="H2" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="123"/>
+      <c r="I2" s="111"/>
     </row>
     <row r="3" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="112" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="125"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="113"/>
       <c r="G3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="124" t="s">
+      <c r="H3" s="112" t="s">
         <v>110</v>
       </c>
-      <c r="I3" s="125"/>
+      <c r="I3" s="113"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="114" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="99"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="115"/>
     </row>
     <row r="5" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="103"/>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="101"/>
+      <c r="A5" s="119"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="117"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
@@ -4549,31 +4580,31 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="107" t="s">
+      <c r="A10" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="109" t="s">
+      <c r="B10" s="98" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="111" t="s">
+      <c r="C10" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="109"/>
-      <c r="E10" s="112"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="123"/>
       <c r="F10" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="113" t="s">
+      <c r="G10" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="114"/>
+      <c r="H10" s="97"/>
       <c r="I10" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="126"/>
-      <c r="B11" s="127"/>
+      <c r="A11" s="105"/>
+      <c r="B11" s="106"/>
       <c r="C11" s="40" t="s">
         <v>69</v>
       </c>
@@ -4625,31 +4656,31 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" s="107" t="s">
+      <c r="A17" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="111" t="s">
+      <c r="B17" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="111" t="s">
+      <c r="C17" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="109"/>
-      <c r="E17" s="112"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="123"/>
       <c r="F17" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="G17" s="113" t="s">
+      <c r="G17" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="H17" s="114"/>
+      <c r="H17" s="97"/>
       <c r="I17" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="126"/>
-      <c r="B18" s="128"/>
+      <c r="A18" s="105"/>
+      <c r="B18" s="108"/>
       <c r="C18" s="40" t="s">
         <v>69</v>
       </c>
@@ -4701,31 +4732,31 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A24" s="107" t="s">
+      <c r="A24" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="109" t="s">
+      <c r="B24" s="98" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="111" t="s">
+      <c r="C24" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="109"/>
-      <c r="E24" s="112"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="123"/>
       <c r="F24" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="G24" s="113" t="s">
+      <c r="G24" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="H24" s="114"/>
+      <c r="H24" s="97"/>
       <c r="I24" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="108"/>
-      <c r="B25" s="110"/>
+      <c r="A25" s="101"/>
+      <c r="B25" s="99"/>
       <c r="C25" s="40" t="s">
         <v>69</v>
       </c>
@@ -4749,13 +4780,13 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A26" s="115" t="s">
+      <c r="A26" s="102" t="s">
         <v>30</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="118" t="s">
+      <c r="C26" s="124" t="s">
         <v>81</v>
       </c>
       <c r="D26" s="44" t="s">
@@ -4778,11 +4809,11 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A27" s="116"/>
+      <c r="A27" s="103"/>
       <c r="B27" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="119"/>
+      <c r="C27" s="125"/>
       <c r="D27" s="2" t="s">
         <v>3</v>
       </c>
@@ -4801,11 +4832,11 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A28" s="116"/>
+      <c r="A28" s="103"/>
       <c r="B28" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="119"/>
+      <c r="C28" s="125"/>
       <c r="D28" s="2" t="s">
         <v>4</v>
       </c>
@@ -4824,11 +4855,11 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A29" s="116"/>
+      <c r="A29" s="103"/>
       <c r="B29" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="119"/>
+      <c r="C29" s="125"/>
       <c r="D29" s="2" t="s">
         <v>5</v>
       </c>
@@ -4847,11 +4878,11 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A30" s="116"/>
+      <c r="A30" s="103"/>
       <c r="B30" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="119"/>
+      <c r="C30" s="125"/>
       <c r="D30" s="2" t="s">
         <v>6</v>
       </c>
@@ -4870,11 +4901,11 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A31" s="116"/>
+      <c r="A31" s="103"/>
       <c r="B31" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="119"/>
+      <c r="C31" s="125"/>
       <c r="D31" s="2" t="s">
         <v>7</v>
       </c>
@@ -4893,11 +4924,11 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="117"/>
+      <c r="A32" s="104"/>
       <c r="B32" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="120"/>
+      <c r="C32" s="126"/>
       <c r="D32" s="46" t="s">
         <v>8</v>
       </c>
@@ -4938,31 +4969,31 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A38" s="107" t="s">
+      <c r="A38" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="109" t="s">
+      <c r="B38" s="98" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="111" t="s">
+      <c r="C38" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="109"/>
-      <c r="E38" s="112"/>
+      <c r="D38" s="98"/>
+      <c r="E38" s="123"/>
       <c r="F38" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="G38" s="113" t="s">
+      <c r="G38" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="H38" s="114"/>
+      <c r="H38" s="97"/>
       <c r="I38" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="108"/>
-      <c r="B39" s="110"/>
+      <c r="A39" s="101"/>
+      <c r="B39" s="99"/>
       <c r="C39" s="40" t="s">
         <v>69</v>
       </c>
@@ -4986,7 +5017,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A40" s="115" t="s">
+      <c r="A40" s="102" t="s">
         <v>67</v>
       </c>
       <c r="B40" s="16" t="s">
@@ -5015,11 +5046,11 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A41" s="116"/>
+      <c r="A41" s="103"/>
       <c r="B41" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="104" t="s">
+      <c r="C41" s="120" t="s">
         <v>81</v>
       </c>
       <c r="D41" s="2" t="s">
@@ -5040,11 +5071,11 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A42" s="116"/>
+      <c r="A42" s="103"/>
       <c r="B42" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="105"/>
+      <c r="C42" s="121"/>
       <c r="D42" s="2" t="s">
         <v>4</v>
       </c>
@@ -5063,11 +5094,11 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A43" s="116"/>
+      <c r="A43" s="103"/>
       <c r="B43" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="105"/>
+      <c r="C43" s="121"/>
       <c r="D43" s="2" t="s">
         <v>5</v>
       </c>
@@ -5086,11 +5117,11 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A44" s="116"/>
+      <c r="A44" s="103"/>
       <c r="B44" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C44" s="105"/>
+      <c r="C44" s="121"/>
       <c r="D44" s="2" t="s">
         <v>6</v>
       </c>
@@ -5109,11 +5140,11 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A45" s="116"/>
+      <c r="A45" s="103"/>
       <c r="B45" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C45" s="105"/>
+      <c r="C45" s="121"/>
       <c r="D45" s="2" t="s">
         <v>7</v>
       </c>
@@ -5132,11 +5163,11 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="117"/>
+      <c r="A46" s="104"/>
       <c r="B46" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C46" s="106"/>
+      <c r="C46" s="122"/>
       <c r="D46" s="46" t="s">
         <v>8</v>
       </c>
@@ -5184,31 +5215,31 @@
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A51" s="107" t="s">
+      <c r="A51" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="B51" s="109" t="s">
+      <c r="B51" s="98" t="s">
         <v>54</v>
       </c>
-      <c r="C51" s="111" t="s">
+      <c r="C51" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="109"/>
-      <c r="E51" s="112"/>
+      <c r="D51" s="98"/>
+      <c r="E51" s="123"/>
       <c r="F51" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="G51" s="113" t="s">
+      <c r="G51" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="H51" s="114"/>
+      <c r="H51" s="97"/>
       <c r="I51" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="108"/>
-      <c r="B52" s="110"/>
+      <c r="A52" s="101"/>
+      <c r="B52" s="99"/>
       <c r="C52" s="40" t="s">
         <v>69</v>
       </c>
@@ -5262,21 +5293,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A32"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:I5"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="C41:C46"/>
@@ -5293,6 +5309,21 @@
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="C38:E38"/>
     <mergeCell ref="C26:C32"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A32"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="G17:H17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5316,81 +5347,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="123"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="111"/>
       <c r="G2" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="122" t="s">
+      <c r="H2" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="123"/>
+      <c r="I2" s="111"/>
     </row>
     <row r="3" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="112" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="125"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="113"/>
       <c r="G3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="124" t="s">
+      <c r="H3" s="112" t="s">
         <v>110</v>
       </c>
-      <c r="I3" s="125"/>
+      <c r="I3" s="113"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="114" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="99"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="115"/>
     </row>
     <row r="5" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="103"/>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="101"/>
+      <c r="A5" s="119"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="117"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
@@ -5408,31 +5439,31 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="107" t="s">
+      <c r="A10" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="109" t="s">
+      <c r="B10" s="98" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="111" t="s">
+      <c r="C10" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="109"/>
-      <c r="E10" s="112"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="123"/>
       <c r="F10" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="113" t="s">
+      <c r="G10" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="114"/>
+      <c r="H10" s="97"/>
       <c r="I10" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="126"/>
-      <c r="B11" s="127"/>
+      <c r="A11" s="105"/>
+      <c r="B11" s="106"/>
       <c r="C11" s="40" t="s">
         <v>69</v>
       </c>
@@ -5484,31 +5515,31 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" s="107" t="s">
+      <c r="A17" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="111" t="s">
+      <c r="B17" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="111" t="s">
+      <c r="C17" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="109"/>
-      <c r="E17" s="112"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="123"/>
       <c r="F17" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="G17" s="113" t="s">
+      <c r="G17" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="H17" s="114"/>
+      <c r="H17" s="97"/>
       <c r="I17" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="126"/>
-      <c r="B18" s="128"/>
+      <c r="A18" s="105"/>
+      <c r="B18" s="108"/>
       <c r="C18" s="40" t="s">
         <v>69</v>
       </c>
@@ -5560,31 +5591,31 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A24" s="107" t="s">
+      <c r="A24" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="109" t="s">
+      <c r="B24" s="98" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="111" t="s">
+      <c r="C24" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="109"/>
-      <c r="E24" s="112"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="123"/>
       <c r="F24" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="G24" s="113" t="s">
+      <c r="G24" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="H24" s="114"/>
+      <c r="H24" s="97"/>
       <c r="I24" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="126"/>
-      <c r="B25" s="127"/>
+      <c r="A25" s="105"/>
+      <c r="B25" s="106"/>
       <c r="C25" s="52" t="s">
         <v>69</v>
       </c>
@@ -5614,7 +5645,7 @@
       <c r="B26" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="C26" s="134" t="s">
+      <c r="C26" s="127" t="s">
         <v>98</v>
       </c>
       <c r="D26" s="54" t="s">
@@ -5641,7 +5672,7 @@
       <c r="B27" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="135"/>
+      <c r="C27" s="128"/>
       <c r="D27" s="4" t="s">
         <v>20</v>
       </c>
@@ -5664,7 +5695,7 @@
       <c r="B28" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="135"/>
+      <c r="C28" s="128"/>
       <c r="D28" s="4" t="s">
         <v>21</v>
       </c>
@@ -5689,7 +5720,7 @@
       <c r="B29" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="C29" s="103"/>
+      <c r="C29" s="119"/>
       <c r="D29" s="55" t="s">
         <v>22</v>
       </c>
@@ -5731,31 +5762,31 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A35" s="107" t="s">
+      <c r="A35" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="109" t="s">
+      <c r="B35" s="98" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="111" t="s">
+      <c r="C35" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="109"/>
-      <c r="E35" s="112"/>
+      <c r="D35" s="98"/>
+      <c r="E35" s="123"/>
       <c r="F35" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="G35" s="113" t="s">
+      <c r="G35" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="H35" s="114"/>
+      <c r="H35" s="97"/>
       <c r="I35" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="126"/>
-      <c r="B36" s="127"/>
+      <c r="A36" s="105"/>
+      <c r="B36" s="106"/>
       <c r="C36" s="52" t="s">
         <v>69</v>
       </c>
@@ -5899,31 +5930,31 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A45" s="107" t="s">
+      <c r="A45" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="B45" s="109" t="s">
+      <c r="B45" s="98" t="s">
         <v>54</v>
       </c>
-      <c r="C45" s="111" t="s">
+      <c r="C45" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="D45" s="109"/>
-      <c r="E45" s="112"/>
+      <c r="D45" s="98"/>
+      <c r="E45" s="123"/>
       <c r="F45" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="G45" s="113" t="s">
+      <c r="G45" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="H45" s="114"/>
+      <c r="H45" s="97"/>
       <c r="I45" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="108"/>
-      <c r="B46" s="110"/>
+      <c r="A46" s="101"/>
+      <c r="B46" s="99"/>
       <c r="C46" s="40" t="s">
         <v>69</v>
       </c>
@@ -5977,27 +6008,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I5"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="A26:A29"/>
     <mergeCell ref="A45:A46"/>
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="C45:E45"/>
@@ -6008,6 +6018,27 @@
     <mergeCell ref="G35:H35"/>
     <mergeCell ref="A37:A40"/>
     <mergeCell ref="C38:C40"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I5"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6019,93 +6050,93 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0664B7A0-99C2-4176-847A-EBEF7477ADCC}">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="14.375" customWidth="1"/>
     <col min="2" max="2" width="17.125" customWidth="1"/>
-    <col min="3" max="9" width="16" customWidth="1"/>
+    <col min="3" max="10" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="123"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="111"/>
       <c r="G2" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="122" t="s">
+      <c r="H2" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="123"/>
+      <c r="I2" s="111"/>
     </row>
     <row r="3" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="112" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="125"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="113"/>
       <c r="G3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="124" t="s">
+      <c r="H3" s="112" t="s">
         <v>110</v>
       </c>
-      <c r="I3" s="125"/>
+      <c r="I3" s="113"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="114" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="99"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="115"/>
     </row>
     <row r="5" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="103"/>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="101"/>
+      <c r="A5" s="119"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="117"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
@@ -6123,31 +6154,31 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="107" t="s">
+      <c r="A10" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="109" t="s">
+      <c r="B10" s="98" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="111" t="s">
+      <c r="C10" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="109"/>
-      <c r="E10" s="112"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="123"/>
       <c r="F10" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="113" t="s">
+      <c r="G10" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="114"/>
+      <c r="H10" s="97"/>
       <c r="I10" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="126"/>
-      <c r="B11" s="127"/>
+      <c r="A11" s="105"/>
+      <c r="B11" s="106"/>
       <c r="C11" s="40" t="s">
         <v>69</v>
       </c>
@@ -6198,32 +6229,32 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" s="107" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A17" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="111" t="s">
+      <c r="B17" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="111" t="s">
+      <c r="C17" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="109"/>
-      <c r="E17" s="112"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="123"/>
       <c r="F17" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="G17" s="113" t="s">
+      <c r="G17" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="H17" s="114"/>
+      <c r="H17" s="97"/>
       <c r="I17" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="126"/>
-      <c r="B18" s="128"/>
+    <row r="18" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="105"/>
+      <c r="B18" s="108"/>
       <c r="C18" s="40" t="s">
         <v>69</v>
       </c>
@@ -6246,7 +6277,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="19" t="s">
         <v>55</v>
       </c>
@@ -6259,47 +6290,48 @@
       <c r="H19" s="34"/>
       <c r="I19" s="32"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A24" s="107" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A24" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="109" t="s">
+      <c r="B24" s="98" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="111" t="s">
+      <c r="C24" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="109"/>
-      <c r="E24" s="112"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="123"/>
       <c r="F24" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="G24" s="113" t="s">
+      <c r="G24" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="H24" s="114"/>
-      <c r="I24" s="21" t="s">
+      <c r="H24" s="97"/>
+      <c r="I24" s="107" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="108"/>
-      <c r="B25" s="110"/>
+      <c r="J24" s="123"/>
+    </row>
+    <row r="25" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="101"/>
+      <c r="B25" s="99"/>
       <c r="C25" s="40" t="s">
         <v>69</v>
       </c>
@@ -6319,19 +6351,22 @@
         <v>45</v>
       </c>
       <c r="I25" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="J25" s="27" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="90" t="s">
+      <c r="B26" s="142" t="s">
         <v>121</v>
       </c>
-      <c r="C26" s="91"/>
-      <c r="D26" s="92"/>
-      <c r="E26" s="93" t="s">
+      <c r="C26" s="90"/>
+      <c r="D26" s="91"/>
+      <c r="E26" s="92" t="s">
         <v>125</v>
       </c>
       <c r="F26" s="16" t="s">
@@ -6344,17 +6379,20 @@
         <v>9</v>
       </c>
       <c r="I26" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="J26" s="15" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" s="64"/>
-      <c r="B27" s="94" t="s">
+      <c r="B27" s="143" t="s">
         <v>122</v>
       </c>
-      <c r="C27" s="95"/>
-      <c r="D27" s="96"/>
-      <c r="E27" s="97"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="94"/>
+      <c r="E27" s="95"/>
       <c r="F27" s="17" t="s">
         <v>71</v>
       </c>
@@ -6365,15 +6403,18 @@
         <v>9</v>
       </c>
       <c r="I27" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="J27" s="11" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="64"/>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="143" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="136" t="s">
+      <c r="C28" s="134" t="s">
         <v>160</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -6384,27 +6425,30 @@
         <v>70</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>9</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+        <v>172</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" s="64"/>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="143" t="s">
         <v>123</v>
       </c>
-      <c r="C29" s="136"/>
+      <c r="C29" s="134"/>
       <c r="D29" s="2" t="s">
         <v>163</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="17" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="G29" s="9" t="s">
         <v>49</v>
@@ -6413,42 +6457,50 @@
         <v>9</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+        <v>172</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" s="64"/>
-      <c r="B30" s="85" t="s">
+      <c r="B30" s="144" t="s">
         <v>161</v>
       </c>
-      <c r="C30" s="136"/>
+      <c r="C30" s="134"/>
       <c r="D30" s="86" t="s">
         <v>164</v>
       </c>
       <c r="E30" s="87"/>
       <c r="F30" s="85" t="s">
+        <v>167</v>
+      </c>
+      <c r="G30" s="88" t="s">
+        <v>166</v>
+      </c>
+      <c r="H30" s="87" t="s">
         <v>168</v>
       </c>
-      <c r="G30" s="88" t="s">
-        <v>167</v>
-      </c>
-      <c r="H30" s="87" t="s">
-        <v>169</v>
-      </c>
       <c r="I30" s="89" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+        <v>173</v>
+      </c>
+      <c r="J30" s="89" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" s="64"/>
-      <c r="B31" s="85" t="s">
+      <c r="B31" s="144" t="s">
         <v>162</v>
       </c>
-      <c r="C31" s="136"/>
+      <c r="C31" s="134"/>
       <c r="D31" s="86" t="s">
         <v>165</v>
       </c>
-      <c r="E31" s="87"/>
+      <c r="E31" s="87" t="s">
+        <v>174</v>
+      </c>
       <c r="F31" s="85" t="s">
         <v>165</v>
       </c>
@@ -6456,20 +6508,23 @@
         <v>165</v>
       </c>
       <c r="H31" s="87" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I31" s="89" t="s">
+        <v>173</v>
+      </c>
+      <c r="J31" s="89" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="65"/>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="145" t="s">
         <v>124</v>
       </c>
-      <c r="C32" s="137"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="8" t="s">
+      <c r="C32" s="139"/>
+      <c r="D32" s="140"/>
+      <c r="E32" s="141" t="s">
         <v>41</v>
       </c>
       <c r="F32" s="18" t="s">
@@ -6482,6 +6537,9 @@
         <v>10</v>
       </c>
       <c r="I32" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="J32" s="12" t="s">
         <v>143</v>
       </c>
     </row>
@@ -6506,31 +6564,31 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A38" s="107" t="s">
+      <c r="A38" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="109" t="s">
+      <c r="B38" s="98" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="111" t="s">
+      <c r="C38" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="109"/>
-      <c r="E38" s="112"/>
+      <c r="D38" s="98"/>
+      <c r="E38" s="123"/>
       <c r="F38" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="G38" s="113" t="s">
+      <c r="G38" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="H38" s="114"/>
+      <c r="H38" s="97"/>
       <c r="I38" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="108"/>
-      <c r="B39" s="110"/>
+      <c r="A39" s="101"/>
+      <c r="B39" s="99"/>
       <c r="C39" s="40" t="s">
         <v>69</v>
       </c>
@@ -6554,7 +6612,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A40" s="115" t="s">
+      <c r="A40" s="102" t="s">
         <v>67</v>
       </c>
       <c r="B40" s="16" t="s">
@@ -6583,11 +6641,11 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A41" s="116"/>
+      <c r="A41" s="103"/>
       <c r="B41" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="104" t="s">
+      <c r="C41" s="120" t="s">
         <v>81</v>
       </c>
       <c r="D41" s="2" t="s">
@@ -6608,11 +6666,11 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A42" s="116"/>
+      <c r="A42" s="103"/>
       <c r="B42" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="105"/>
+      <c r="C42" s="121"/>
       <c r="D42" s="2" t="s">
         <v>4</v>
       </c>
@@ -6631,11 +6689,11 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A43" s="116"/>
+      <c r="A43" s="103"/>
       <c r="B43" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="105"/>
+      <c r="C43" s="121"/>
       <c r="D43" s="2" t="s">
         <v>5</v>
       </c>
@@ -6654,11 +6712,11 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A44" s="116"/>
+      <c r="A44" s="103"/>
       <c r="B44" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C44" s="105"/>
+      <c r="C44" s="121"/>
       <c r="D44" s="2" t="s">
         <v>6</v>
       </c>
@@ -6677,11 +6735,11 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A45" s="116"/>
+      <c r="A45" s="103"/>
       <c r="B45" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C45" s="105"/>
+      <c r="C45" s="121"/>
       <c r="D45" s="2" t="s">
         <v>7</v>
       </c>
@@ -6700,11 +6758,11 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="117"/>
+      <c r="A46" s="104"/>
       <c r="B46" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C46" s="106"/>
+      <c r="C46" s="122"/>
       <c r="D46" s="46" t="s">
         <v>8</v>
       </c>
@@ -6752,31 +6810,31 @@
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A51" s="107" t="s">
+      <c r="A51" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="B51" s="109" t="s">
+      <c r="B51" s="98" t="s">
         <v>54</v>
       </c>
-      <c r="C51" s="111" t="s">
+      <c r="C51" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="109"/>
-      <c r="E51" s="112"/>
+      <c r="D51" s="98"/>
+      <c r="E51" s="123"/>
       <c r="F51" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="G51" s="113" t="s">
+      <c r="G51" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="H51" s="114"/>
+      <c r="H51" s="97"/>
       <c r="I51" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="108"/>
-      <c r="B52" s="110"/>
+      <c r="A52" s="101"/>
+      <c r="B52" s="99"/>
       <c r="C52" s="40" t="s">
         <v>69</v>
       </c>
@@ -6829,14 +6887,19 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I5"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="H3:I3"/>
+  <mergeCells count="31">
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="A40:A46"/>
+    <mergeCell ref="C41:C46"/>
+    <mergeCell ref="C28:C31"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="C24:E24"/>
@@ -6849,17 +6912,13 @@
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C28:C32"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="A40:A46"/>
-    <mergeCell ref="C41:C46"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I5"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6952,7 +7011,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B11" s="138" t="s">
+      <c r="B11" s="135" t="s">
         <v>139</v>
       </c>
       <c r="C11" s="75" t="s">
@@ -6966,7 +7025,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B12" s="138"/>
+      <c r="B12" s="135"/>
       <c r="C12" s="76" t="s">
         <v>141</v>
       </c>
@@ -6976,7 +7035,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B13" s="138"/>
+      <c r="B13" s="135"/>
       <c r="C13" s="76" t="s">
         <v>12</v>
       </c>
@@ -6985,7 +7044,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B14" s="138"/>
+      <c r="B14" s="135"/>
       <c r="C14" s="76" t="s">
         <v>142</v>
       </c>
@@ -6994,7 +7053,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="139"/>
+      <c r="B15" s="136"/>
       <c r="C15" s="77" t="s">
         <v>143</v>
       </c>
@@ -7003,7 +7062,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B16" s="138" t="s">
+      <c r="B16" s="135" t="s">
         <v>144</v>
       </c>
       <c r="C16" s="75" t="s">
@@ -7015,7 +7074,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B17" s="138"/>
+      <c r="B17" s="135"/>
       <c r="C17" s="76" t="s">
         <v>107</v>
       </c>
@@ -7024,7 +7083,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B18" s="138"/>
+      <c r="B18" s="135"/>
       <c r="C18" s="76" t="s">
         <v>146</v>
       </c>
@@ -7033,7 +7092,7 @@
       </c>
     </row>
     <row r="19" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="139"/>
+      <c r="B19" s="136"/>
       <c r="C19" s="77" t="s">
         <v>140</v>
       </c>
@@ -7061,7 +7120,7 @@
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B23" s="140" t="s">
+      <c r="B23" s="137" t="s">
         <v>139</v>
       </c>
       <c r="C23" s="78" t="s">
@@ -7075,14 +7134,14 @@
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B24" s="140"/>
+      <c r="B24" s="137"/>
       <c r="C24" s="80" t="s">
         <v>141</v>
       </c>
       <c r="D24" s="81"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B25" s="140"/>
+      <c r="B25" s="137"/>
       <c r="C25" s="80" t="s">
         <v>12</v>
       </c>
@@ -7091,7 +7150,7 @@
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B26" s="140"/>
+      <c r="B26" s="137"/>
       <c r="C26" s="80" t="s">
         <v>142</v>
       </c>
@@ -7100,7 +7159,7 @@
       </c>
     </row>
     <row r="27" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="141"/>
+      <c r="B27" s="138"/>
       <c r="C27" s="83" t="s">
         <v>143</v>
       </c>
@@ -7109,7 +7168,7 @@
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B28" s="138" t="s">
+      <c r="B28" s="135" t="s">
         <v>144</v>
       </c>
       <c r="C28" s="75" t="s">
@@ -7121,7 +7180,7 @@
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B29" s="138"/>
+      <c r="B29" s="135"/>
       <c r="C29" s="76" t="s">
         <v>107</v>
       </c>
@@ -7130,7 +7189,7 @@
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B30" s="138"/>
+      <c r="B30" s="135"/>
       <c r="C30" s="76" t="s">
         <v>146</v>
       </c>
@@ -7139,7 +7198,7 @@
       </c>
     </row>
     <row r="31" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="139"/>
+      <c r="B31" s="136"/>
       <c r="C31" s="77" t="s">
         <v>140</v>
       </c>

--- a/API設計_20201019.xlsx
+++ b/API設計_20201019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kotori\Documents\GitHub\SerakuPJ_Bteam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB509E3-387E-4C08-B26F-627FF7A5080E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B478A33D-5323-4F7D-9737-AB9A3A85B3D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7665" yWindow="2025" windowWidth="20490" windowHeight="11295" activeTab="2" xr2:uid="{6CD5D422-6C48-43B2-A20C-F480BDA33AB0}"/>
+    <workbookView xWindow="3915" yWindow="1530" windowWidth="20490" windowHeight="11295" firstSheet="2" activeTab="2" xr2:uid="{6CD5D422-6C48-43B2-A20C-F480BDA33AB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Store（店舗情報）" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="186">
   <si>
     <t>key</t>
     <phoneticPr fontId="1"/>
@@ -1317,6 +1317,77 @@
   </si>
   <si>
     <t>(整数値)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・支払い情報更新</t>
+    <rPh sb="1" eb="3">
+      <t>シハラ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Postmanにて「URL/payment」をURL欄に入力し、Body項目にてオーダーコードを設定し、Sendボタンを押下</t>
+    <rPh sb="60" eb="62">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成功するとオーダーコードが表示され、支払い済みフラグが成立する</t>
+    <rPh sb="0" eb="2">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シハラ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>セイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PUT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オーダーコード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>order_code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Body(form-data)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OCode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ocode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>`order`</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2036,7 +2107,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2304,9 +2375,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2325,24 +2393,81 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2352,71 +2477,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2424,21 +2531,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2454,25 +2546,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4488,81 +4568,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="126" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="127" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="111"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="128"/>
       <c r="G2" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="110" t="s">
+      <c r="H2" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="111"/>
+      <c r="I2" s="128"/>
     </row>
     <row r="3" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="129" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="113"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="130"/>
       <c r="G3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="112" t="s">
+      <c r="H3" s="129" t="s">
         <v>110</v>
       </c>
-      <c r="I3" s="113"/>
+      <c r="I3" s="130"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="118" t="s">
+      <c r="A4" s="107" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="114" t="s">
+      <c r="B4" s="103" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="115"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="104"/>
     </row>
     <row r="5" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="119"/>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="117"/>
+      <c r="A5" s="108"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="106"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
@@ -4580,31 +4660,31 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="100" t="s">
+      <c r="A10" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="98" t="s">
+      <c r="B10" s="114" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="107" t="s">
+      <c r="C10" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="98"/>
-      <c r="E10" s="123"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="117"/>
       <c r="F10" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="96" t="s">
+      <c r="G10" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="97"/>
+      <c r="H10" s="119"/>
       <c r="I10" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="105"/>
-      <c r="B11" s="106"/>
+      <c r="A11" s="131"/>
+      <c r="B11" s="132"/>
       <c r="C11" s="40" t="s">
         <v>69</v>
       </c>
@@ -4656,31 +4736,31 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" s="100" t="s">
+      <c r="A17" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="107" t="s">
+      <c r="B17" s="116" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="107" t="s">
+      <c r="C17" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="98"/>
-      <c r="E17" s="123"/>
+      <c r="D17" s="114"/>
+      <c r="E17" s="117"/>
       <c r="F17" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="G17" s="96" t="s">
+      <c r="G17" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="H17" s="97"/>
+      <c r="H17" s="119"/>
       <c r="I17" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="105"/>
-      <c r="B18" s="108"/>
+      <c r="A18" s="131"/>
+      <c r="B18" s="133"/>
       <c r="C18" s="40" t="s">
         <v>69</v>
       </c>
@@ -4732,31 +4812,31 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A24" s="100" t="s">
+      <c r="A24" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="98" t="s">
+      <c r="B24" s="114" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="107" t="s">
+      <c r="C24" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="98"/>
-      <c r="E24" s="123"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="117"/>
       <c r="F24" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="G24" s="96" t="s">
+      <c r="G24" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="H24" s="97"/>
+      <c r="H24" s="119"/>
       <c r="I24" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="101"/>
-      <c r="B25" s="99"/>
+      <c r="A25" s="113"/>
+      <c r="B25" s="115"/>
       <c r="C25" s="40" t="s">
         <v>69</v>
       </c>
@@ -4780,13 +4860,13 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A26" s="102" t="s">
+      <c r="A26" s="120" t="s">
         <v>30</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="124" t="s">
+      <c r="C26" s="123" t="s">
         <v>81</v>
       </c>
       <c r="D26" s="44" t="s">
@@ -4809,11 +4889,11 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A27" s="103"/>
+      <c r="A27" s="121"/>
       <c r="B27" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="125"/>
+      <c r="C27" s="124"/>
       <c r="D27" s="2" t="s">
         <v>3</v>
       </c>
@@ -4832,11 +4912,11 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A28" s="103"/>
+      <c r="A28" s="121"/>
       <c r="B28" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="125"/>
+      <c r="C28" s="124"/>
       <c r="D28" s="2" t="s">
         <v>4</v>
       </c>
@@ -4855,11 +4935,11 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A29" s="103"/>
+      <c r="A29" s="121"/>
       <c r="B29" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="125"/>
+      <c r="C29" s="124"/>
       <c r="D29" s="2" t="s">
         <v>5</v>
       </c>
@@ -4878,11 +4958,11 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A30" s="103"/>
+      <c r="A30" s="121"/>
       <c r="B30" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="125"/>
+      <c r="C30" s="124"/>
       <c r="D30" s="2" t="s">
         <v>6</v>
       </c>
@@ -4901,11 +4981,11 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A31" s="103"/>
+      <c r="A31" s="121"/>
       <c r="B31" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="125"/>
+      <c r="C31" s="124"/>
       <c r="D31" s="2" t="s">
         <v>7</v>
       </c>
@@ -4924,11 +5004,11 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="104"/>
+      <c r="A32" s="122"/>
       <c r="B32" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="126"/>
+      <c r="C32" s="125"/>
       <c r="D32" s="46" t="s">
         <v>8</v>
       </c>
@@ -4969,31 +5049,31 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A38" s="100" t="s">
+      <c r="A38" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="98" t="s">
+      <c r="B38" s="114" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="107" t="s">
+      <c r="C38" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="98"/>
-      <c r="E38" s="123"/>
+      <c r="D38" s="114"/>
+      <c r="E38" s="117"/>
       <c r="F38" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="G38" s="96" t="s">
+      <c r="G38" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="H38" s="97"/>
+      <c r="H38" s="119"/>
       <c r="I38" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="101"/>
-      <c r="B39" s="99"/>
+      <c r="A39" s="113"/>
+      <c r="B39" s="115"/>
       <c r="C39" s="40" t="s">
         <v>69</v>
       </c>
@@ -5017,7 +5097,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A40" s="102" t="s">
+      <c r="A40" s="120" t="s">
         <v>67</v>
       </c>
       <c r="B40" s="16" t="s">
@@ -5046,11 +5126,11 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A41" s="103"/>
+      <c r="A41" s="121"/>
       <c r="B41" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="120" t="s">
+      <c r="C41" s="109" t="s">
         <v>81</v>
       </c>
       <c r="D41" s="2" t="s">
@@ -5071,11 +5151,11 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A42" s="103"/>
+      <c r="A42" s="121"/>
       <c r="B42" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="121"/>
+      <c r="C42" s="110"/>
       <c r="D42" s="2" t="s">
         <v>4</v>
       </c>
@@ -5094,11 +5174,11 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A43" s="103"/>
+      <c r="A43" s="121"/>
       <c r="B43" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="121"/>
+      <c r="C43" s="110"/>
       <c r="D43" s="2" t="s">
         <v>5</v>
       </c>
@@ -5117,11 +5197,11 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A44" s="103"/>
+      <c r="A44" s="121"/>
       <c r="B44" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C44" s="121"/>
+      <c r="C44" s="110"/>
       <c r="D44" s="2" t="s">
         <v>6</v>
       </c>
@@ -5140,11 +5220,11 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A45" s="103"/>
+      <c r="A45" s="121"/>
       <c r="B45" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C45" s="121"/>
+      <c r="C45" s="110"/>
       <c r="D45" s="2" t="s">
         <v>7</v>
       </c>
@@ -5163,11 +5243,11 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="104"/>
+      <c r="A46" s="122"/>
       <c r="B46" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C46" s="122"/>
+      <c r="C46" s="111"/>
       <c r="D46" s="46" t="s">
         <v>8</v>
       </c>
@@ -5215,31 +5295,31 @@
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A51" s="100" t="s">
+      <c r="A51" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="B51" s="98" t="s">
+      <c r="B51" s="114" t="s">
         <v>54</v>
       </c>
-      <c r="C51" s="107" t="s">
+      <c r="C51" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="98"/>
-      <c r="E51" s="123"/>
+      <c r="D51" s="114"/>
+      <c r="E51" s="117"/>
       <c r="F51" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="G51" s="96" t="s">
+      <c r="G51" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="H51" s="97"/>
+      <c r="H51" s="119"/>
       <c r="I51" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="101"/>
-      <c r="B52" s="99"/>
+      <c r="A52" s="113"/>
+      <c r="B52" s="115"/>
       <c r="C52" s="40" t="s">
         <v>69</v>
       </c>
@@ -5293,6 +5373,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A32"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:I5"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="C41:C46"/>
@@ -5309,21 +5404,6 @@
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="C38:E38"/>
     <mergeCell ref="C26:C32"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A32"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="G17:H17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5347,81 +5427,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="126" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="127" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="111"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="128"/>
       <c r="G2" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="110" t="s">
+      <c r="H2" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="111"/>
+      <c r="I2" s="128"/>
     </row>
     <row r="3" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="129" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="113"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="130"/>
       <c r="G3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="112" t="s">
+      <c r="H3" s="129" t="s">
         <v>110</v>
       </c>
-      <c r="I3" s="113"/>
+      <c r="I3" s="130"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="118" t="s">
+      <c r="A4" s="107" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="114" t="s">
+      <c r="B4" s="103" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="115"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="104"/>
     </row>
     <row r="5" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="119"/>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="117"/>
+      <c r="A5" s="108"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="106"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
@@ -5439,31 +5519,31 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="100" t="s">
+      <c r="A10" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="98" t="s">
+      <c r="B10" s="114" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="107" t="s">
+      <c r="C10" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="98"/>
-      <c r="E10" s="123"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="117"/>
       <c r="F10" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="96" t="s">
+      <c r="G10" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="97"/>
+      <c r="H10" s="119"/>
       <c r="I10" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="105"/>
-      <c r="B11" s="106"/>
+      <c r="A11" s="131"/>
+      <c r="B11" s="132"/>
       <c r="C11" s="40" t="s">
         <v>69</v>
       </c>
@@ -5515,31 +5595,31 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" s="100" t="s">
+      <c r="A17" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="107" t="s">
+      <c r="B17" s="116" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="107" t="s">
+      <c r="C17" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="98"/>
-      <c r="E17" s="123"/>
+      <c r="D17" s="114"/>
+      <c r="E17" s="117"/>
       <c r="F17" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="G17" s="96" t="s">
+      <c r="G17" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="H17" s="97"/>
+      <c r="H17" s="119"/>
       <c r="I17" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="105"/>
-      <c r="B18" s="108"/>
+      <c r="A18" s="131"/>
+      <c r="B18" s="133"/>
       <c r="C18" s="40" t="s">
         <v>69</v>
       </c>
@@ -5591,31 +5671,31 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A24" s="100" t="s">
+      <c r="A24" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="98" t="s">
+      <c r="B24" s="114" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="107" t="s">
+      <c r="C24" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="98"/>
-      <c r="E24" s="123"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="117"/>
       <c r="F24" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="G24" s="96" t="s">
+      <c r="G24" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="H24" s="97"/>
+      <c r="H24" s="119"/>
       <c r="I24" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="105"/>
-      <c r="B25" s="106"/>
+      <c r="A25" s="131"/>
+      <c r="B25" s="132"/>
       <c r="C25" s="52" t="s">
         <v>69</v>
       </c>
@@ -5639,13 +5719,13 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A26" s="129" t="s">
+      <c r="A26" s="134" t="s">
         <v>30</v>
       </c>
       <c r="B26" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="C26" s="127" t="s">
+      <c r="C26" s="139" t="s">
         <v>98</v>
       </c>
       <c r="D26" s="54" t="s">
@@ -5668,11 +5748,11 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A27" s="130"/>
+      <c r="A27" s="135"/>
       <c r="B27" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="128"/>
+      <c r="C27" s="140"/>
       <c r="D27" s="4" t="s">
         <v>20</v>
       </c>
@@ -5691,11 +5771,11 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A28" s="130"/>
+      <c r="A28" s="135"/>
       <c r="B28" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="128"/>
+      <c r="C28" s="140"/>
       <c r="D28" s="4" t="s">
         <v>21</v>
       </c>
@@ -5716,11 +5796,11 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="131"/>
+      <c r="A29" s="136"/>
       <c r="B29" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="C29" s="119"/>
+      <c r="C29" s="108"/>
       <c r="D29" s="55" t="s">
         <v>22</v>
       </c>
@@ -5762,31 +5842,31 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A35" s="100" t="s">
+      <c r="A35" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="98" t="s">
+      <c r="B35" s="114" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="107" t="s">
+      <c r="C35" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="98"/>
-      <c r="E35" s="123"/>
+      <c r="D35" s="114"/>
+      <c r="E35" s="117"/>
       <c r="F35" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="G35" s="96" t="s">
+      <c r="G35" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="H35" s="97"/>
+      <c r="H35" s="119"/>
       <c r="I35" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="105"/>
-      <c r="B36" s="106"/>
+      <c r="A36" s="131"/>
+      <c r="B36" s="132"/>
       <c r="C36" s="52" t="s">
         <v>69</v>
       </c>
@@ -5810,7 +5890,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="129" t="s">
+      <c r="A37" s="134" t="s">
         <v>67</v>
       </c>
       <c r="B37" s="61" t="s">
@@ -5839,11 +5919,11 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A38" s="130"/>
+      <c r="A38" s="135"/>
       <c r="B38" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="C38" s="132" t="s">
+      <c r="C38" s="137" t="s">
         <v>98</v>
       </c>
       <c r="D38" s="4" t="s">
@@ -5864,11 +5944,11 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A39" s="130"/>
+      <c r="A39" s="135"/>
       <c r="B39" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="C39" s="132"/>
+      <c r="C39" s="137"/>
       <c r="D39" s="4" t="s">
         <v>21</v>
       </c>
@@ -5889,11 +5969,11 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="131"/>
+      <c r="A40" s="136"/>
       <c r="B40" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="C40" s="133"/>
+      <c r="C40" s="138"/>
       <c r="D40" s="55" t="s">
         <v>22</v>
       </c>
@@ -5930,31 +6010,31 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A45" s="100" t="s">
+      <c r="A45" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="B45" s="98" t="s">
+      <c r="B45" s="114" t="s">
         <v>54</v>
       </c>
-      <c r="C45" s="107" t="s">
+      <c r="C45" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="D45" s="98"/>
-      <c r="E45" s="123"/>
+      <c r="D45" s="114"/>
+      <c r="E45" s="117"/>
       <c r="F45" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="G45" s="96" t="s">
+      <c r="G45" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="H45" s="97"/>
+      <c r="H45" s="119"/>
       <c r="I45" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="101"/>
-      <c r="B46" s="99"/>
+      <c r="A46" s="113"/>
+      <c r="B46" s="115"/>
       <c r="C46" s="40" t="s">
         <v>69</v>
       </c>
@@ -6008,6 +6088,27 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I5"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="A26:A29"/>
     <mergeCell ref="A45:A46"/>
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="C45:E45"/>
@@ -6018,27 +6119,6 @@
     <mergeCell ref="G35:H35"/>
     <mergeCell ref="A37:A40"/>
     <mergeCell ref="C38:C40"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I5"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6048,10 +6128,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0664B7A0-99C2-4176-847A-EBEF7477ADCC}">
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6062,81 +6142,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="126" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="127" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="111"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="128"/>
       <c r="G2" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="110" t="s">
+      <c r="H2" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="111"/>
+      <c r="I2" s="128"/>
     </row>
     <row r="3" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="129" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="113"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="130"/>
       <c r="G3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="112" t="s">
+      <c r="H3" s="129" t="s">
         <v>110</v>
       </c>
-      <c r="I3" s="113"/>
+      <c r="I3" s="130"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="118" t="s">
+      <c r="A4" s="107" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="114" t="s">
+      <c r="B4" s="103" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="115"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="104"/>
     </row>
     <row r="5" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="119"/>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="117"/>
+      <c r="A5" s="108"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="106"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
@@ -6154,31 +6234,31 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="100" t="s">
+      <c r="A10" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="98" t="s">
+      <c r="B10" s="114" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="107" t="s">
+      <c r="C10" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="98"/>
-      <c r="E10" s="123"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="117"/>
       <c r="F10" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="96" t="s">
+      <c r="G10" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="97"/>
+      <c r="H10" s="119"/>
       <c r="I10" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="105"/>
-      <c r="B11" s="106"/>
+      <c r="A11" s="131"/>
+      <c r="B11" s="132"/>
       <c r="C11" s="40" t="s">
         <v>69</v>
       </c>
@@ -6230,31 +6310,31 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A17" s="100" t="s">
+      <c r="A17" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="107" t="s">
+      <c r="B17" s="116" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="107" t="s">
+      <c r="C17" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="98"/>
-      <c r="E17" s="123"/>
+      <c r="D17" s="114"/>
+      <c r="E17" s="117"/>
       <c r="F17" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="G17" s="96" t="s">
+      <c r="G17" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="H17" s="97"/>
+      <c r="H17" s="119"/>
       <c r="I17" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="105"/>
-      <c r="B18" s="108"/>
+      <c r="A18" s="131"/>
+      <c r="B18" s="133"/>
       <c r="C18" s="40" t="s">
         <v>69</v>
       </c>
@@ -6306,32 +6386,32 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A24" s="100" t="s">
+      <c r="A24" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="98" t="s">
+      <c r="B24" s="114" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="107" t="s">
+      <c r="C24" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="98"/>
-      <c r="E24" s="123"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="117"/>
       <c r="F24" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="G24" s="96" t="s">
+      <c r="G24" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="H24" s="97"/>
-      <c r="I24" s="107" t="s">
+      <c r="H24" s="119"/>
+      <c r="I24" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="J24" s="123"/>
+      <c r="J24" s="117"/>
     </row>
     <row r="25" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="101"/>
-      <c r="B25" s="99"/>
+      <c r="A25" s="113"/>
+      <c r="B25" s="115"/>
       <c r="C25" s="40" t="s">
         <v>69</v>
       </c>
@@ -6350,10 +6430,10 @@
       <c r="H25" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="I25" s="27" t="s">
+      <c r="I25" s="148" t="s">
         <v>170</v>
       </c>
-      <c r="J25" s="27" t="s">
+      <c r="J25" s="26" t="s">
         <v>42</v>
       </c>
     </row>
@@ -6361,12 +6441,12 @@
       <c r="A26" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="142" t="s">
+      <c r="B26" s="99" t="s">
         <v>121</v>
       </c>
-      <c r="C26" s="90"/>
-      <c r="D26" s="91"/>
-      <c r="E26" s="92" t="s">
+      <c r="C26" s="89"/>
+      <c r="D26" s="90"/>
+      <c r="E26" s="91" t="s">
         <v>125</v>
       </c>
       <c r="F26" s="16" t="s">
@@ -6378,21 +6458,21 @@
       <c r="H26" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I26" s="15" t="s">
+      <c r="I26" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="J26" s="15" t="s">
+      <c r="J26" s="13" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" s="64"/>
-      <c r="B27" s="143" t="s">
+      <c r="B27" s="100" t="s">
         <v>122</v>
       </c>
-      <c r="C27" s="93"/>
-      <c r="D27" s="94"/>
-      <c r="E27" s="95"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="94"/>
       <c r="F27" s="17" t="s">
         <v>71</v>
       </c>
@@ -6402,19 +6482,19 @@
       <c r="H27" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I27" s="11" t="s">
+      <c r="I27" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="J27" s="11" t="s">
+      <c r="J27" s="6" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="64"/>
-      <c r="B28" s="143" t="s">
+      <c r="B28" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="134" t="s">
+      <c r="C28" s="141" t="s">
         <v>160</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -6430,19 +6510,19 @@
       <c r="H28" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I28" s="11" t="s">
+      <c r="I28" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="J28" s="11" t="s">
+      <c r="J28" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" s="64"/>
-      <c r="B29" s="143" t="s">
+      <c r="B29" s="100" t="s">
         <v>123</v>
       </c>
-      <c r="C29" s="134"/>
+      <c r="C29" s="141"/>
       <c r="D29" s="2" t="s">
         <v>163</v>
       </c>
@@ -6456,19 +6536,19 @@
       <c r="H29" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I29" s="11" t="s">
+      <c r="I29" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="J29" s="11" t="s">
+      <c r="J29" s="6" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" s="64"/>
-      <c r="B30" s="144" t="s">
+      <c r="B30" s="101" t="s">
         <v>161</v>
       </c>
-      <c r="C30" s="134"/>
+      <c r="C30" s="141"/>
       <c r="D30" s="86" t="s">
         <v>164</v>
       </c>
@@ -6482,19 +6562,19 @@
       <c r="H30" s="87" t="s">
         <v>168</v>
       </c>
-      <c r="I30" s="89" t="s">
+      <c r="I30" s="85" t="s">
         <v>173</v>
       </c>
-      <c r="J30" s="89" t="s">
+      <c r="J30" s="87" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" s="64"/>
-      <c r="B31" s="144" t="s">
+      <c r="B31" s="101" t="s">
         <v>162</v>
       </c>
-      <c r="C31" s="134"/>
+      <c r="C31" s="141"/>
       <c r="D31" s="86" t="s">
         <v>165</v>
       </c>
@@ -6510,21 +6590,21 @@
       <c r="H31" s="87" t="s">
         <v>169</v>
       </c>
-      <c r="I31" s="89" t="s">
+      <c r="I31" s="85" t="s">
         <v>173</v>
       </c>
-      <c r="J31" s="89" t="s">
+      <c r="J31" s="87" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="65"/>
-      <c r="B32" s="145" t="s">
+      <c r="B32" s="102" t="s">
         <v>124</v>
       </c>
-      <c r="C32" s="139"/>
-      <c r="D32" s="140"/>
-      <c r="E32" s="141" t="s">
+      <c r="C32" s="96"/>
+      <c r="D32" s="97"/>
+      <c r="E32" s="98" t="s">
         <v>41</v>
       </c>
       <c r="F32" s="18" t="s">
@@ -6536,374 +6616,467 @@
       <c r="H32" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I32" s="12" t="s">
+      <c r="I32" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="J32" s="12" t="s">
+      <c r="J32" s="8" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
-        <v>66</v>
+        <v>175</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A37" s="112" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="114" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="116" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" s="114"/>
+      <c r="E37" s="117"/>
+      <c r="F37" s="95" t="s">
+        <v>68</v>
+      </c>
+      <c r="G37" s="118" t="s">
+        <v>43</v>
+      </c>
+      <c r="H37" s="119"/>
+      <c r="I37" s="116" t="s">
+        <v>11</v>
+      </c>
+      <c r="J37" s="117"/>
+    </row>
+    <row r="38" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="131"/>
+      <c r="B38" s="132"/>
+      <c r="C38" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F38" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="G38" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="H38" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="I38" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="J38" s="23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="147" t="s">
+        <v>178</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="C39" s="146" t="s">
+        <v>181</v>
+      </c>
+      <c r="D39" s="49" t="s">
+        <v>180</v>
+      </c>
+      <c r="E39" s="20"/>
+      <c r="F39" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="G39" s="146" t="s">
+        <v>183</v>
+      </c>
+      <c r="H39" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="I39" s="147" t="s">
+        <v>185</v>
+      </c>
+      <c r="J39" s="20" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A41" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
+    <row r="44" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A38" s="100" t="s">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A45" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="98" t="s">
+      <c r="B45" s="114" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="107" t="s">
+      <c r="C45" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="98"/>
-      <c r="E38" s="123"/>
-      <c r="F38" s="42" t="s">
+      <c r="D45" s="114"/>
+      <c r="E45" s="117"/>
+      <c r="F45" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="G38" s="96" t="s">
+      <c r="G45" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="H38" s="97"/>
-      <c r="I38" s="21" t="s">
+      <c r="H45" s="119"/>
+      <c r="I45" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="101"/>
-      <c r="B39" s="99"/>
-      <c r="C39" s="40" t="s">
+    <row r="46" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="113"/>
+      <c r="B46" s="115"/>
+      <c r="C46" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="D39" s="41" t="s">
+      <c r="D46" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="E39" s="26" t="s">
+      <c r="E46" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="F39" s="27" t="s">
+      <c r="F46" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="G39" s="25" t="s">
+      <c r="G46" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="H39" s="26" t="s">
+      <c r="H46" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="I39" s="27" t="s">
+      <c r="I46" s="27" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A40" s="102" t="s">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A47" s="120" t="s">
         <v>67</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B47" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="47" t="s">
+      <c r="C47" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="D40" s="44" t="s">
+      <c r="D47" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="E40" s="45" t="s">
+      <c r="E47" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="F40" s="16" t="s">
+      <c r="F47" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="G40" s="14" t="s">
+      <c r="G47" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H40" s="13" t="s">
+      <c r="H47" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I40" s="15" t="s">
+      <c r="I47" s="15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A41" s="103"/>
-      <c r="B41" s="17" t="s">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A48" s="121"/>
+      <c r="B48" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="120" t="s">
+      <c r="C48" s="109" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D48" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E41" s="6"/>
-      <c r="F41" s="17" t="s">
+      <c r="E48" s="6"/>
+      <c r="F48" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G41" s="9" t="s">
+      <c r="G48" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="H41" s="6" t="s">
+      <c r="H48" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I41" s="11" t="s">
+      <c r="I48" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A42" s="103"/>
-      <c r="B42" s="17" t="s">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A49" s="121"/>
+      <c r="B49" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="121"/>
-      <c r="D42" s="2" t="s">
+      <c r="C49" s="110"/>
+      <c r="D49" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="6"/>
-      <c r="F42" s="17" t="s">
+      <c r="E49" s="6"/>
+      <c r="F49" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G42" s="9" t="s">
+      <c r="G49" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="H42" s="6" t="s">
+      <c r="H49" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I42" s="11" t="s">
+      <c r="I49" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A43" s="103"/>
-      <c r="B43" s="17" t="s">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A50" s="121"/>
+      <c r="B50" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="121"/>
-      <c r="D43" s="2" t="s">
+      <c r="C50" s="110"/>
+      <c r="D50" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E43" s="6"/>
-      <c r="F43" s="17" t="s">
+      <c r="E50" s="6"/>
+      <c r="F50" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="G43" s="9" t="s">
+      <c r="G50" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H43" s="6" t="s">
+      <c r="H50" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I43" s="11" t="s">
+      <c r="I50" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A44" s="103"/>
-      <c r="B44" s="17" t="s">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A51" s="121"/>
+      <c r="B51" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C44" s="121"/>
-      <c r="D44" s="2" t="s">
+      <c r="C51" s="110"/>
+      <c r="D51" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E44" s="6"/>
-      <c r="F44" s="17" t="s">
+      <c r="E51" s="6"/>
+      <c r="F51" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="G44" s="9" t="s">
+      <c r="G51" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="H44" s="6" t="s">
+      <c r="H51" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I44" s="11" t="s">
+      <c r="I51" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A45" s="103"/>
-      <c r="B45" s="17" t="s">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A52" s="121"/>
+      <c r="B52" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C45" s="121"/>
-      <c r="D45" s="2" t="s">
+      <c r="C52" s="110"/>
+      <c r="D52" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E45" s="6"/>
-      <c r="F45" s="17" t="s">
+      <c r="E52" s="6"/>
+      <c r="F52" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="G45" s="9" t="s">
+      <c r="G52" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="H45" s="6" t="s">
+      <c r="H52" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I45" s="11" t="s">
+      <c r="I52" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="104"/>
-      <c r="B46" s="18" t="s">
+    <row r="53" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="122"/>
+      <c r="B53" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C46" s="122"/>
-      <c r="D46" s="46" t="s">
+      <c r="C53" s="111"/>
+      <c r="D53" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="E53" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F46" s="18" t="s">
+      <c r="F53" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="G46" s="10" t="s">
+      <c r="G53" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H46" s="8" t="s">
+      <c r="H53" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I46" s="12" t="s">
+      <c r="I53" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A47" s="28"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A48" s="1" t="s">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A54" s="28"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A55" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A49" t="s">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
+    <row r="57" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A51" s="100" t="s">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A58" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="B51" s="98" t="s">
+      <c r="B58" s="114" t="s">
         <v>54</v>
       </c>
-      <c r="C51" s="107" t="s">
+      <c r="C58" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="98"/>
-      <c r="E51" s="123"/>
-      <c r="F51" s="42" t="s">
+      <c r="D58" s="114"/>
+      <c r="E58" s="117"/>
+      <c r="F58" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="G51" s="96" t="s">
+      <c r="G58" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="H51" s="97"/>
-      <c r="I51" s="21" t="s">
+      <c r="H58" s="119"/>
+      <c r="I58" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="101"/>
-      <c r="B52" s="99"/>
-      <c r="C52" s="40" t="s">
+    <row r="59" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A59" s="113"/>
+      <c r="B59" s="115"/>
+      <c r="C59" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="D52" s="41" t="s">
+      <c r="D59" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="E52" s="26" t="s">
+      <c r="E59" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="F52" s="27" t="s">
+      <c r="F59" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="G52" s="25" t="s">
+      <c r="G59" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="H52" s="26" t="s">
+      <c r="H59" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="I52" s="27" t="s">
+      <c r="I59" s="27" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="19" t="s">
+    <row r="60" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A60" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="B53" s="31" t="s">
+      <c r="B60" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C53" s="48" t="s">
+      <c r="C60" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="D53" s="49" t="s">
+      <c r="D60" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="E53" s="20" t="s">
+      <c r="E60" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F53" s="31" t="s">
+      <c r="F60" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="G53" s="50" t="s">
+      <c r="G60" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="H53" s="20" t="s">
+      <c r="H60" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="I53" s="51" t="s">
+      <c r="I60" s="51" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="A40:A46"/>
-    <mergeCell ref="C41:C46"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="G24:H24"/>
+  <mergeCells count="36">
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I5"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:E10"/>
@@ -6912,13 +7085,22 @@
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I5"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="A47:A53"/>
+    <mergeCell ref="C48:C53"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="G24:H24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7011,7 +7193,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B11" s="135" t="s">
+      <c r="B11" s="142" t="s">
         <v>139</v>
       </c>
       <c r="C11" s="75" t="s">
@@ -7025,7 +7207,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B12" s="135"/>
+      <c r="B12" s="142"/>
       <c r="C12" s="76" t="s">
         <v>141</v>
       </c>
@@ -7035,7 +7217,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B13" s="135"/>
+      <c r="B13" s="142"/>
       <c r="C13" s="76" t="s">
         <v>12</v>
       </c>
@@ -7044,7 +7226,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B14" s="135"/>
+      <c r="B14" s="142"/>
       <c r="C14" s="76" t="s">
         <v>142</v>
       </c>
@@ -7053,7 +7235,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="136"/>
+      <c r="B15" s="143"/>
       <c r="C15" s="77" t="s">
         <v>143</v>
       </c>
@@ -7062,7 +7244,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B16" s="135" t="s">
+      <c r="B16" s="142" t="s">
         <v>144</v>
       </c>
       <c r="C16" s="75" t="s">
@@ -7074,7 +7256,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B17" s="135"/>
+      <c r="B17" s="142"/>
       <c r="C17" s="76" t="s">
         <v>107</v>
       </c>
@@ -7083,7 +7265,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B18" s="135"/>
+      <c r="B18" s="142"/>
       <c r="C18" s="76" t="s">
         <v>146</v>
       </c>
@@ -7092,7 +7274,7 @@
       </c>
     </row>
     <row r="19" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="136"/>
+      <c r="B19" s="143"/>
       <c r="C19" s="77" t="s">
         <v>140</v>
       </c>
@@ -7120,7 +7302,7 @@
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B23" s="137" t="s">
+      <c r="B23" s="144" t="s">
         <v>139</v>
       </c>
       <c r="C23" s="78" t="s">
@@ -7134,14 +7316,14 @@
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B24" s="137"/>
+      <c r="B24" s="144"/>
       <c r="C24" s="80" t="s">
         <v>141</v>
       </c>
       <c r="D24" s="81"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B25" s="137"/>
+      <c r="B25" s="144"/>
       <c r="C25" s="80" t="s">
         <v>12</v>
       </c>
@@ -7150,7 +7332,7 @@
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B26" s="137"/>
+      <c r="B26" s="144"/>
       <c r="C26" s="80" t="s">
         <v>142</v>
       </c>
@@ -7159,7 +7341,7 @@
       </c>
     </row>
     <row r="27" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="138"/>
+      <c r="B27" s="145"/>
       <c r="C27" s="83" t="s">
         <v>143</v>
       </c>
@@ -7168,7 +7350,7 @@
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B28" s="135" t="s">
+      <c r="B28" s="142" t="s">
         <v>144</v>
       </c>
       <c r="C28" s="75" t="s">
@@ -7180,7 +7362,7 @@
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B29" s="135"/>
+      <c r="B29" s="142"/>
       <c r="C29" s="76" t="s">
         <v>107</v>
       </c>
@@ -7189,7 +7371,7 @@
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B30" s="135"/>
+      <c r="B30" s="142"/>
       <c r="C30" s="76" t="s">
         <v>146</v>
       </c>
@@ -7198,7 +7380,7 @@
       </c>
     </row>
     <row r="31" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="136"/>
+      <c r="B31" s="143"/>
       <c r="C31" s="77" t="s">
         <v>140</v>
       </c>
